--- a/admin/ajax/tmp/data2.xlsx
+++ b/admin/ajax/tmp/data2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="13">
   <si>
     <t>Dominant</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Nilai C</t>
+  </si>
+  <si>
+    <t>Periode</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
   </si>
 </sst>
 </file>
@@ -392,19 +398,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
@@ -422,13 +432,16 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1511001</v>
+        <v>1411001</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -445,13 +458,16 @@
       <c r="G2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1511002</v>
+        <v>1411002</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -468,13 +484,16 @@
       <c r="G3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1511003</v>
+        <v>1411003</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -491,13 +510,16 @@
       <c r="G4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1511004</v>
+        <v>1411004</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -514,13 +536,16 @@
       <c r="G5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1511005</v>
+        <v>1411005</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -537,13 +562,16 @@
       <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1511006</v>
+        <v>1411006</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -560,13 +588,16 @@
       <c r="G7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1511007</v>
+        <v>1411007</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -583,13 +614,16 @@
       <c r="G8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1511008</v>
+        <v>1411008</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -606,13 +640,16 @@
       <c r="G9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1511009</v>
+        <v>1411009</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -629,13 +666,16 @@
       <c r="G10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1511010</v>
+        <v>1411010</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -652,13 +692,16 @@
       <c r="G11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1511011</v>
+        <v>1411011</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -675,13 +718,16 @@
       <c r="G12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1511012</v>
+        <v>1411012</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -698,13 +744,16 @@
       <c r="G13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1511013</v>
+        <v>1411013</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -721,13 +770,16 @@
       <c r="G14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1511014</v>
+        <v>1411014</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -744,13 +796,16 @@
       <c r="G15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1511015</v>
+        <v>1411015</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -767,13 +822,16 @@
       <c r="G16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>1511016</v>
+        <v>1411016</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -790,13 +848,16 @@
       <c r="G17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>1511017</v>
+        <v>1411017</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -813,13 +874,16 @@
       <c r="G18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>1511018</v>
+        <v>1411018</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -836,13 +900,16 @@
       <c r="G19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>1511019</v>
+        <v>1411019</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -859,13 +926,16 @@
       <c r="G20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>1511020</v>
+        <v>1411020</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -882,13 +952,16 @@
       <c r="G21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>1511021</v>
+        <v>1411021</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -905,13 +978,16 @@
       <c r="G22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1511022</v>
+        <v>1411022</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -928,13 +1004,16 @@
       <c r="G23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1511023</v>
+        <v>1411023</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -951,13 +1030,16 @@
       <c r="G24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1511024</v>
+        <v>1411024</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -974,13 +1056,16 @@
       <c r="G25">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1511025</v>
+        <v>1411025</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -997,13 +1082,16 @@
       <c r="G26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1511026</v>
+        <v>1411026</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1020,13 +1108,16 @@
       <c r="G27">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1511027</v>
+        <v>1411027</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1043,13 +1134,16 @@
       <c r="G28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1511028</v>
+        <v>1411028</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -1066,13 +1160,16 @@
       <c r="G29">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1511029</v>
+        <v>1411029</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -1089,13 +1186,16 @@
       <c r="G30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1511030</v>
+        <v>1411030</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -1112,13 +1212,16 @@
       <c r="G31">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>1511031</v>
+        <v>1411031</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1135,13 +1238,16 @@
       <c r="G32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>1511032</v>
+        <v>1411032</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -1158,13 +1264,16 @@
       <c r="G33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>1511033</v>
+        <v>1411033</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -1181,13 +1290,16 @@
       <c r="G34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1511034</v>
+        <v>1411034</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -1204,13 +1316,16 @@
       <c r="G35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>1511035</v>
+        <v>1411035</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -1227,13 +1342,16 @@
       <c r="G36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>1511036</v>
+        <v>1411036</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -1250,13 +1368,16 @@
       <c r="G37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>1511037</v>
+        <v>1411037</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1273,13 +1394,16 @@
       <c r="G38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>1511038</v>
+        <v>1411038</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1296,13 +1420,16 @@
       <c r="G39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>1511039</v>
+        <v>1411039</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1319,13 +1446,16 @@
       <c r="G40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>1511040</v>
+        <v>1411040</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -1342,13 +1472,16 @@
       <c r="G41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>1511041</v>
+        <v>1411041</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -1365,13 +1498,16 @@
       <c r="G42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>1511042</v>
+        <v>1411042</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -1388,13 +1524,16 @@
       <c r="G43">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>1511043</v>
+        <v>1411043</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1411,13 +1550,16 @@
       <c r="G44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>1511044</v>
+        <v>1411044</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -1434,13 +1576,16 @@
       <c r="G45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>1511045</v>
+        <v>1411045</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -1457,13 +1602,16 @@
       <c r="G46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>1511046</v>
+        <v>1411046</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -1480,13 +1628,16 @@
       <c r="G47">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>1511047</v>
+        <v>1411047</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -1503,13 +1654,16 @@
       <c r="G48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>1511048</v>
+        <v>1411048</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1526,13 +1680,16 @@
       <c r="G49">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>1511049</v>
+        <v>1411049</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -1549,13 +1706,16 @@
       <c r="G50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>1511050</v>
+        <v>1411050</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -1572,13 +1732,16 @@
       <c r="G51">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>1511051</v>
+        <v>1411051</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -1595,13 +1758,16 @@
       <c r="G52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>1511052</v>
+        <v>1411052</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -1618,13 +1784,16 @@
       <c r="G53">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>1511053</v>
+        <v>1411053</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -1641,13 +1810,16 @@
       <c r="G54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>1511054</v>
+        <v>1411054</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -1664,13 +1836,16 @@
       <c r="G55">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>1511055</v>
+        <v>1411055</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -1687,13 +1862,16 @@
       <c r="G56">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>1511056</v>
+        <v>1411056</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -1710,13 +1888,16 @@
       <c r="G57">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>1511057</v>
+        <v>1411057</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -1733,13 +1914,16 @@
       <c r="G58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>1511058</v>
+        <v>1411058</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -1756,13 +1940,16 @@
       <c r="G59">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>1511059</v>
+        <v>1411059</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -1779,13 +1966,16 @@
       <c r="G60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>1511060</v>
+        <v>1411060</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
@@ -1802,13 +1992,16 @@
       <c r="G61">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>1511061</v>
+        <v>1411061</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
@@ -1825,13 +2018,16 @@
       <c r="G62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>1511062</v>
+        <v>1411062</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
@@ -1848,13 +2044,16 @@
       <c r="G63">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>1511063</v>
+        <v>1411063</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -1871,13 +2070,16 @@
       <c r="G64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>1511064</v>
+        <v>1411064</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -1894,13 +2096,16 @@
       <c r="G65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>1511065</v>
+        <v>1411065</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -1917,13 +2122,16 @@
       <c r="G66">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>1511066</v>
+        <v>1411066</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -1940,13 +2148,16 @@
       <c r="G67">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>1511067</v>
+        <v>1411067</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
@@ -1963,13 +2174,16 @@
       <c r="G68">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>1511068</v>
+        <v>1411068</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -1986,13 +2200,16 @@
       <c r="G69">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>1511069</v>
+        <v>1411069</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -2009,13 +2226,16 @@
       <c r="G70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>1511070</v>
+        <v>1411070</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -2032,13 +2252,16 @@
       <c r="G71">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>1511071</v>
+        <v>1411071</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -2055,13 +2278,16 @@
       <c r="G72">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>1511072</v>
+        <v>1411072</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -2078,13 +2304,16 @@
       <c r="G73">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>1511073</v>
+        <v>1411073</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -2101,13 +2330,16 @@
       <c r="G74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>1511074</v>
+        <v>1411074</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -2124,13 +2356,16 @@
       <c r="G75">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>1511075</v>
+        <v>1411075</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -2147,13 +2382,16 @@
       <c r="G76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>1511076</v>
+        <v>1411076</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -2170,13 +2408,16 @@
       <c r="G77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>1511077</v>
+        <v>1411077</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -2193,13 +2434,16 @@
       <c r="G78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>1511078</v>
+        <v>1411078</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -2216,13 +2460,16 @@
       <c r="G79">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>1511079</v>
+        <v>1411079</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -2239,13 +2486,16 @@
       <c r="G80">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>1511080</v>
+        <v>1411080</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -2262,13 +2512,16 @@
       <c r="G81">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>1511081</v>
+        <v>1411081</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -2285,13 +2538,16 @@
       <c r="G82">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>1511082</v>
+        <v>1411082</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -2308,13 +2564,16 @@
       <c r="G83">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>1511083</v>
+        <v>1411083</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -2331,13 +2590,16 @@
       <c r="G84">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>1511084</v>
+        <v>1411084</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -2354,13 +2616,16 @@
       <c r="G85">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>1511085</v>
+        <v>1411085</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -2377,13 +2642,16 @@
       <c r="G86">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>1511086</v>
+        <v>1411086</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -2400,13 +2668,16 @@
       <c r="G87">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>1511087</v>
+        <v>1411087</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
@@ -2423,13 +2694,16 @@
       <c r="G88">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>1511088</v>
+        <v>1411088</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
@@ -2446,13 +2720,16 @@
       <c r="G89">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>1511089</v>
+        <v>1411089</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
@@ -2469,13 +2746,16 @@
       <c r="G90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>1511090</v>
+        <v>1411090</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -2492,13 +2772,16 @@
       <c r="G91">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>1511091</v>
+        <v>1411091</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -2515,13 +2798,16 @@
       <c r="G92">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>1511092</v>
+        <v>1411092</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
@@ -2538,13 +2824,16 @@
       <c r="G93">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>1511093</v>
+        <v>1411093</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
@@ -2561,13 +2850,16 @@
       <c r="G94">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>1511094</v>
+        <v>1411094</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -2584,13 +2876,16 @@
       <c r="G95">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>1511095</v>
+        <v>1411095</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
@@ -2607,13 +2902,16 @@
       <c r="G96">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>1511096</v>
+        <v>1411096</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -2630,13 +2928,16 @@
       <c r="G97">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>1511097</v>
+        <v>1411097</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
@@ -2653,13 +2954,16 @@
       <c r="G98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>1511098</v>
+        <v>1411098</v>
       </c>
       <c r="C99" t="s">
         <v>3</v>
@@ -2676,13 +2980,16 @@
       <c r="G99">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>1511099</v>
+        <v>1411099</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
@@ -2699,13 +3006,16 @@
       <c r="G100">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>1512001</v>
+        <v>1411100</v>
       </c>
       <c r="C101" t="s">
         <v>3</v>
@@ -2722,13 +3032,16 @@
       <c r="G101">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>1512002</v>
+        <v>1411101</v>
       </c>
       <c r="C102" t="s">
         <v>3</v>
@@ -2745,13 +3058,16 @@
       <c r="G102">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>1512003</v>
+        <v>1411102</v>
       </c>
       <c r="C103" t="s">
         <v>3</v>
@@ -2768,13 +3084,16 @@
       <c r="G103">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>1512004</v>
+        <v>1411103</v>
       </c>
       <c r="C104" t="s">
         <v>3</v>
@@ -2791,13 +3110,16 @@
       <c r="G104">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>1512005</v>
+        <v>1411104</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -2814,13 +3136,16 @@
       <c r="G105">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>1512006</v>
+        <v>1411105</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -2837,13 +3162,16 @@
       <c r="G106">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>1512007</v>
+        <v>1411106</v>
       </c>
       <c r="C107" t="s">
         <v>3</v>
@@ -2860,13 +3188,16 @@
       <c r="G107">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>1512008</v>
+        <v>1411107</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -2883,13 +3214,16 @@
       <c r="G108">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>1512009</v>
+        <v>1411108</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -2906,13 +3240,16 @@
       <c r="G109">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>1512010</v>
+        <v>1411109</v>
       </c>
       <c r="C110" t="s">
         <v>3</v>
@@ -2929,13 +3266,16 @@
       <c r="G110">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>1512011</v>
+        <v>1411110</v>
       </c>
       <c r="C111" t="s">
         <v>3</v>
@@ -2952,13 +3292,16 @@
       <c r="G111">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>1512012</v>
+        <v>1411111</v>
       </c>
       <c r="C112" t="s">
         <v>3</v>
@@ -2975,13 +3318,16 @@
       <c r="G112">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>1512013</v>
+        <v>1411112</v>
       </c>
       <c r="C113" t="s">
         <v>3</v>
@@ -2998,13 +3344,16 @@
       <c r="G113">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>1512014</v>
+        <v>1411113</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
@@ -3021,13 +3370,16 @@
       <c r="G114">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>1512015</v>
+        <v>1411114</v>
       </c>
       <c r="C115" t="s">
         <v>3</v>
@@ -3044,13 +3396,16 @@
       <c r="G115">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>1512016</v>
+        <v>1411115</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
@@ -3067,13 +3422,16 @@
       <c r="G116">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>1512017</v>
+        <v>1411116</v>
       </c>
       <c r="C117" t="s">
         <v>3</v>
@@ -3090,13 +3448,16 @@
       <c r="G117">
         <v>6</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>1512018</v>
+        <v>1411117</v>
       </c>
       <c r="C118" t="s">
         <v>3</v>
@@ -3113,13 +3474,16 @@
       <c r="G118">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>1512019</v>
+        <v>1411118</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
@@ -3136,13 +3500,16 @@
       <c r="G119">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>1512020</v>
+        <v>1411119</v>
       </c>
       <c r="C120" t="s">
         <v>3</v>
@@ -3159,13 +3526,16 @@
       <c r="G120">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>1512021</v>
+        <v>1411120</v>
       </c>
       <c r="C121" t="s">
         <v>3</v>
@@ -3182,29 +3552,326 @@
       <c r="G121">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>121</v>
-      </c>
-      <c r="B122" s="1">
-        <v>1512022</v>
-      </c>
-      <c r="C122" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122">
-        <v>9</v>
-      </c>
-      <c r="E122">
-        <v>7</v>
-      </c>
-      <c r="F122">
-        <v>6</v>
-      </c>
-      <c r="G122">
-        <v>5</v>
-      </c>
+      <c r="H121" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="1"/>
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="1"/>
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="1"/>
+      <c r="H125" s="1"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="1"/>
+      <c r="H126" s="1"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="1"/>
+      <c r="H127" s="1"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="1"/>
+      <c r="H128" s="1"/>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="1"/>
+      <c r="H129" s="1"/>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="1"/>
+      <c r="H130" s="1"/>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="1"/>
+      <c r="H131" s="1"/>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="1"/>
+      <c r="H132" s="1"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="1"/>
+      <c r="H133" s="1"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="1"/>
+      <c r="H134" s="1"/>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="1"/>
+      <c r="H135" s="1"/>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="1"/>
+      <c r="H136" s="1"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="1"/>
+      <c r="H137" s="1"/>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="1"/>
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="1"/>
+      <c r="H139" s="1"/>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="1"/>
+      <c r="H140" s="1"/>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="1"/>
+      <c r="H141" s="1"/>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="1"/>
+      <c r="H142" s="1"/>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="1"/>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="1"/>
+      <c r="H144" s="1"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="1"/>
+      <c r="H145" s="1"/>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="1"/>
+      <c r="H146" s="1"/>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B147" s="1"/>
+      <c r="H147" s="1"/>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="1"/>
+      <c r="H148" s="1"/>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="1"/>
+      <c r="H149" s="1"/>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="1"/>
+      <c r="H150" s="1"/>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="1"/>
+      <c r="H151" s="1"/>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="1"/>
+      <c r="H152" s="1"/>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B153" s="1"/>
+      <c r="H153" s="1"/>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B154" s="1"/>
+      <c r="H154" s="1"/>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B155" s="1"/>
+      <c r="H155" s="1"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="1"/>
+      <c r="H156" s="1"/>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B157" s="1"/>
+      <c r="H157" s="1"/>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="1"/>
+      <c r="H158" s="1"/>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B159" s="1"/>
+      <c r="H159" s="1"/>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="1"/>
+      <c r="H160" s="1"/>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="1"/>
+      <c r="H161" s="1"/>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="1"/>
+      <c r="H162" s="1"/>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="1"/>
+      <c r="H163" s="1"/>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="1"/>
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="1"/>
+      <c r="H165" s="1"/>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="1"/>
+      <c r="H166" s="1"/>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="1"/>
+      <c r="H167" s="1"/>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="1"/>
+      <c r="H168" s="1"/>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="1"/>
+      <c r="H169" s="1"/>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="1"/>
+      <c r="H170" s="1"/>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="1"/>
+      <c r="H171" s="1"/>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="1"/>
+      <c r="H172" s="1"/>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="1"/>
+      <c r="H173" s="1"/>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="1"/>
+      <c r="H174" s="1"/>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="1"/>
+      <c r="H175" s="1"/>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="1"/>
+      <c r="H176" s="1"/>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B177" s="1"/>
+      <c r="H177" s="1"/>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B178" s="1"/>
+      <c r="H178" s="1"/>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B179" s="1"/>
+      <c r="H179" s="1"/>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B180" s="1"/>
+      <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B181" s="1"/>
+      <c r="H181" s="1"/>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" s="1"/>
+      <c r="H182" s="1"/>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B183" s="1"/>
+      <c r="H183" s="1"/>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B184" s="1"/>
+      <c r="H184" s="1"/>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B185" s="1"/>
+      <c r="H185" s="1"/>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B186" s="1"/>
+      <c r="H186" s="1"/>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B187" s="1"/>
+      <c r="H187" s="1"/>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" s="1"/>
+      <c r="H188" s="1"/>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B189" s="1"/>
+      <c r="H189" s="1"/>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="1"/>
+      <c r="H190" s="1"/>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B191" s="1"/>
+      <c r="H191" s="1"/>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B192" s="1"/>
+      <c r="H192" s="1"/>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B193" s="1"/>
+      <c r="H193" s="1"/>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B194" s="1"/>
+      <c r="H194" s="1"/>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B195" s="1"/>
+      <c r="H195" s="1"/>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B196" s="1"/>
+      <c r="H196" s="1"/>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B197" s="1"/>
+      <c r="H197" s="1"/>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B198" s="1"/>
+      <c r="H198" s="1"/>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="1"/>
+      <c r="H199" s="1"/>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="1"/>
+      <c r="H200" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/admin/ajax/tmp/data2.xlsx
+++ b/admin/ajax/tmp/data2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="14">
   <si>
     <t>Dominant</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>2017/2018</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123:H241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3557,321 +3560,3124 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="H122" s="1"/>
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1511001</v>
+      </c>
+      <c r="C122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>9</v>
+      </c>
+      <c r="E122">
+        <v>7</v>
+      </c>
+      <c r="F122">
+        <v>6</v>
+      </c>
+      <c r="G122">
+        <v>5</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="1"/>
-      <c r="H123" s="1"/>
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1511002</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>6</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+      <c r="F123">
+        <v>7</v>
+      </c>
+      <c r="G123">
+        <v>6</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="1"/>
-      <c r="H124" s="1"/>
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1511003</v>
+      </c>
+      <c r="C124" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>9</v>
+      </c>
+      <c r="E124">
+        <v>7</v>
+      </c>
+      <c r="F124">
+        <v>6</v>
+      </c>
+      <c r="G124">
+        <v>5</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="1"/>
-      <c r="H125" s="1"/>
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1511004</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>6</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125">
+        <v>7</v>
+      </c>
+      <c r="G125">
+        <v>6</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="1"/>
-      <c r="H126" s="1"/>
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1511005</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>9</v>
+      </c>
+      <c r="E126">
+        <v>7</v>
+      </c>
+      <c r="F126">
+        <v>6</v>
+      </c>
+      <c r="G126">
+        <v>5</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="1"/>
-      <c r="H127" s="1"/>
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1511006</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
+      <c r="F127">
+        <v>7</v>
+      </c>
+      <c r="G127">
+        <v>6</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="1"/>
-      <c r="H128" s="1"/>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="1"/>
-      <c r="H129" s="1"/>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="1"/>
-      <c r="H130" s="1"/>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="1"/>
-      <c r="H131" s="1"/>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="1"/>
-      <c r="H132" s="1"/>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="1"/>
-      <c r="H133" s="1"/>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="1"/>
-      <c r="H134" s="1"/>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="1"/>
-      <c r="H135" s="1"/>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="1"/>
-      <c r="H136" s="1"/>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="1"/>
-      <c r="H137" s="1"/>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="1"/>
-      <c r="H138" s="1"/>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="1"/>
-      <c r="H139" s="1"/>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B140" s="1"/>
-      <c r="H140" s="1"/>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B141" s="1"/>
-      <c r="H141" s="1"/>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B142" s="1"/>
-      <c r="H142" s="1"/>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="1"/>
-      <c r="H143" s="1"/>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="1"/>
-      <c r="H144" s="1"/>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="1"/>
-      <c r="H145" s="1"/>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="1"/>
-      <c r="H146" s="1"/>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="1"/>
-      <c r="H147" s="1"/>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="1"/>
-      <c r="H148" s="1"/>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="1"/>
-      <c r="H149" s="1"/>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="1"/>
-      <c r="H150" s="1"/>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="1"/>
-      <c r="H151" s="1"/>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="1"/>
-      <c r="H152" s="1"/>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="1"/>
-      <c r="H153" s="1"/>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="1"/>
-      <c r="H154" s="1"/>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="1"/>
-      <c r="H155" s="1"/>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="1"/>
-      <c r="H156" s="1"/>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B157" s="1"/>
-      <c r="H157" s="1"/>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B158" s="1"/>
-      <c r="H158" s="1"/>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B159" s="1"/>
-      <c r="H159" s="1"/>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B160" s="1"/>
-      <c r="H160" s="1"/>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B161" s="1"/>
-      <c r="H161" s="1"/>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B162" s="1"/>
-      <c r="H162" s="1"/>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B163" s="1"/>
-      <c r="H163" s="1"/>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B164" s="1"/>
-      <c r="H164" s="1"/>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B165" s="1"/>
-      <c r="H165" s="1"/>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B166" s="1"/>
-      <c r="H166" s="1"/>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B167" s="1"/>
-      <c r="H167" s="1"/>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B168" s="1"/>
-      <c r="H168" s="1"/>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B169" s="1"/>
-      <c r="H169" s="1"/>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B170" s="1"/>
-      <c r="H170" s="1"/>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B171" s="1"/>
-      <c r="H171" s="1"/>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B172" s="1"/>
-      <c r="H172" s="1"/>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B173" s="1"/>
-      <c r="H173" s="1"/>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B174" s="1"/>
-      <c r="H174" s="1"/>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B175" s="1"/>
-      <c r="H175" s="1"/>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B176" s="1"/>
-      <c r="H176" s="1"/>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B177" s="1"/>
-      <c r="H177" s="1"/>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B178" s="1"/>
-      <c r="H178" s="1"/>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B179" s="1"/>
-      <c r="H179" s="1"/>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B180" s="1"/>
-      <c r="H180" s="1"/>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B181" s="1"/>
-      <c r="H181" s="1"/>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B182" s="1"/>
-      <c r="H182" s="1"/>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B183" s="1"/>
-      <c r="H183" s="1"/>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B184" s="1"/>
-      <c r="H184" s="1"/>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B185" s="1"/>
-      <c r="H185" s="1"/>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B186" s="1"/>
-      <c r="H186" s="1"/>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B187" s="1"/>
-      <c r="H187" s="1"/>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B188" s="1"/>
-      <c r="H188" s="1"/>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B189" s="1"/>
-      <c r="H189" s="1"/>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B190" s="1"/>
-      <c r="H190" s="1"/>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B191" s="1"/>
-      <c r="H191" s="1"/>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B192" s="1"/>
-      <c r="H192" s="1"/>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B193" s="1"/>
-      <c r="H193" s="1"/>
-    </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B194" s="1"/>
-      <c r="H194" s="1"/>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B195" s="1"/>
-      <c r="H195" s="1"/>
-    </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B196" s="1"/>
-      <c r="H196" s="1"/>
-    </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B197" s="1"/>
-      <c r="H197" s="1"/>
-    </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B198" s="1"/>
-      <c r="H198" s="1"/>
-    </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B199" s="1"/>
-      <c r="H199" s="1"/>
-    </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B200" s="1"/>
-      <c r="H200" s="1"/>
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1511007</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>9</v>
+      </c>
+      <c r="E128">
+        <v>7</v>
+      </c>
+      <c r="F128">
+        <v>6</v>
+      </c>
+      <c r="G128">
+        <v>5</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1511008</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>6</v>
+      </c>
+      <c r="E129">
+        <v>5</v>
+      </c>
+      <c r="F129">
+        <v>7</v>
+      </c>
+      <c r="G129">
+        <v>6</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1511009</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>9</v>
+      </c>
+      <c r="E130">
+        <v>7</v>
+      </c>
+      <c r="F130">
+        <v>6</v>
+      </c>
+      <c r="G130">
+        <v>5</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1511010</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>6</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+      <c r="F131">
+        <v>7</v>
+      </c>
+      <c r="G131">
+        <v>6</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1511011</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>9</v>
+      </c>
+      <c r="E132">
+        <v>7</v>
+      </c>
+      <c r="F132">
+        <v>6</v>
+      </c>
+      <c r="G132">
+        <v>5</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1511012</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133">
+        <v>7</v>
+      </c>
+      <c r="G133">
+        <v>6</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1511013</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>9</v>
+      </c>
+      <c r="E134">
+        <v>7</v>
+      </c>
+      <c r="F134">
+        <v>6</v>
+      </c>
+      <c r="G134">
+        <v>5</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1511014</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>6</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+      <c r="F135">
+        <v>7</v>
+      </c>
+      <c r="G135">
+        <v>6</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1511015</v>
+      </c>
+      <c r="C136" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>9</v>
+      </c>
+      <c r="E136">
+        <v>7</v>
+      </c>
+      <c r="F136">
+        <v>6</v>
+      </c>
+      <c r="G136">
+        <v>5</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1511016</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
+      </c>
+      <c r="F137">
+        <v>7</v>
+      </c>
+      <c r="G137">
+        <v>6</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1511017</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>9</v>
+      </c>
+      <c r="E138">
+        <v>7</v>
+      </c>
+      <c r="F138">
+        <v>6</v>
+      </c>
+      <c r="G138">
+        <v>5</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1511018</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <v>5</v>
+      </c>
+      <c r="F139">
+        <v>7</v>
+      </c>
+      <c r="G139">
+        <v>6</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1511019</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>9</v>
+      </c>
+      <c r="E140">
+        <v>7</v>
+      </c>
+      <c r="F140">
+        <v>6</v>
+      </c>
+      <c r="G140">
+        <v>5</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1511020</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>6</v>
+      </c>
+      <c r="E141">
+        <v>5</v>
+      </c>
+      <c r="F141">
+        <v>7</v>
+      </c>
+      <c r="G141">
+        <v>6</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1511021</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>9</v>
+      </c>
+      <c r="E142">
+        <v>7</v>
+      </c>
+      <c r="F142">
+        <v>6</v>
+      </c>
+      <c r="G142">
+        <v>5</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1511022</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>6</v>
+      </c>
+      <c r="E143">
+        <v>5</v>
+      </c>
+      <c r="F143">
+        <v>7</v>
+      </c>
+      <c r="G143">
+        <v>6</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1511023</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>9</v>
+      </c>
+      <c r="E144">
+        <v>7</v>
+      </c>
+      <c r="F144">
+        <v>6</v>
+      </c>
+      <c r="G144">
+        <v>5</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1511024</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>6</v>
+      </c>
+      <c r="E145">
+        <v>5</v>
+      </c>
+      <c r="F145">
+        <v>7</v>
+      </c>
+      <c r="G145">
+        <v>6</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1511025</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>9</v>
+      </c>
+      <c r="E146">
+        <v>7</v>
+      </c>
+      <c r="F146">
+        <v>6</v>
+      </c>
+      <c r="G146">
+        <v>5</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1511026</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <v>5</v>
+      </c>
+      <c r="F147">
+        <v>7</v>
+      </c>
+      <c r="G147">
+        <v>6</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1511027</v>
+      </c>
+      <c r="C148" t="s">
+        <v>3</v>
+      </c>
+      <c r="D148">
+        <v>9</v>
+      </c>
+      <c r="E148">
+        <v>7</v>
+      </c>
+      <c r="F148">
+        <v>6</v>
+      </c>
+      <c r="G148">
+        <v>5</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1511028</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>6</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+      <c r="F149">
+        <v>7</v>
+      </c>
+      <c r="G149">
+        <v>6</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1511029</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>9</v>
+      </c>
+      <c r="E150">
+        <v>7</v>
+      </c>
+      <c r="F150">
+        <v>6</v>
+      </c>
+      <c r="G150">
+        <v>5</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1511030</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>6</v>
+      </c>
+      <c r="E151">
+        <v>5</v>
+      </c>
+      <c r="F151">
+        <v>7</v>
+      </c>
+      <c r="G151">
+        <v>6</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1511031</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152">
+        <v>9</v>
+      </c>
+      <c r="E152">
+        <v>7</v>
+      </c>
+      <c r="F152">
+        <v>6</v>
+      </c>
+      <c r="G152">
+        <v>5</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1511032</v>
+      </c>
+      <c r="C153" t="s">
+        <v>3</v>
+      </c>
+      <c r="D153">
+        <v>6</v>
+      </c>
+      <c r="E153">
+        <v>5</v>
+      </c>
+      <c r="F153">
+        <v>7</v>
+      </c>
+      <c r="G153">
+        <v>6</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1511033</v>
+      </c>
+      <c r="C154" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>9</v>
+      </c>
+      <c r="E154">
+        <v>7</v>
+      </c>
+      <c r="F154">
+        <v>6</v>
+      </c>
+      <c r="G154">
+        <v>5</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1">
+        <v>1511034</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>6</v>
+      </c>
+      <c r="E155">
+        <v>5</v>
+      </c>
+      <c r="F155">
+        <v>7</v>
+      </c>
+      <c r="G155">
+        <v>6</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1511035</v>
+      </c>
+      <c r="C156" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>9</v>
+      </c>
+      <c r="E156">
+        <v>7</v>
+      </c>
+      <c r="F156">
+        <v>6</v>
+      </c>
+      <c r="G156">
+        <v>5</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1511036</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157">
+        <v>6</v>
+      </c>
+      <c r="E157">
+        <v>5</v>
+      </c>
+      <c r="F157">
+        <v>7</v>
+      </c>
+      <c r="G157">
+        <v>6</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1511037</v>
+      </c>
+      <c r="C158" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>9</v>
+      </c>
+      <c r="E158">
+        <v>7</v>
+      </c>
+      <c r="F158">
+        <v>6</v>
+      </c>
+      <c r="G158">
+        <v>5</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1">
+        <v>1511038</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>6</v>
+      </c>
+      <c r="E159">
+        <v>5</v>
+      </c>
+      <c r="F159">
+        <v>7</v>
+      </c>
+      <c r="G159">
+        <v>6</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1511039</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160">
+        <v>9</v>
+      </c>
+      <c r="E160">
+        <v>7</v>
+      </c>
+      <c r="F160">
+        <v>6</v>
+      </c>
+      <c r="G160">
+        <v>5</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1">
+        <v>1511040</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>6</v>
+      </c>
+      <c r="E161">
+        <v>5</v>
+      </c>
+      <c r="F161">
+        <v>7</v>
+      </c>
+      <c r="G161">
+        <v>6</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1511041</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162">
+        <v>9</v>
+      </c>
+      <c r="E162">
+        <v>7</v>
+      </c>
+      <c r="F162">
+        <v>6</v>
+      </c>
+      <c r="G162">
+        <v>5</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1511042</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>6</v>
+      </c>
+      <c r="E163">
+        <v>5</v>
+      </c>
+      <c r="F163">
+        <v>7</v>
+      </c>
+      <c r="G163">
+        <v>6</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1511043</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>9</v>
+      </c>
+      <c r="E164">
+        <v>7</v>
+      </c>
+      <c r="F164">
+        <v>6</v>
+      </c>
+      <c r="G164">
+        <v>5</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1">
+        <v>1511044</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>6</v>
+      </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
+      <c r="F165">
+        <v>7</v>
+      </c>
+      <c r="G165">
+        <v>6</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1">
+        <v>1511045</v>
+      </c>
+      <c r="C166" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>9</v>
+      </c>
+      <c r="E166">
+        <v>7</v>
+      </c>
+      <c r="F166">
+        <v>6</v>
+      </c>
+      <c r="G166">
+        <v>5</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1511046</v>
+      </c>
+      <c r="C167" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167">
+        <v>6</v>
+      </c>
+      <c r="E167">
+        <v>5</v>
+      </c>
+      <c r="F167">
+        <v>7</v>
+      </c>
+      <c r="G167">
+        <v>6</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1">
+        <v>1511047</v>
+      </c>
+      <c r="C168" t="s">
+        <v>3</v>
+      </c>
+      <c r="D168">
+        <v>9</v>
+      </c>
+      <c r="E168">
+        <v>7</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+      <c r="G168">
+        <v>5</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1511048</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>6</v>
+      </c>
+      <c r="E169">
+        <v>5</v>
+      </c>
+      <c r="F169">
+        <v>7</v>
+      </c>
+      <c r="G169">
+        <v>6</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1511049</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>9</v>
+      </c>
+      <c r="E170">
+        <v>7</v>
+      </c>
+      <c r="F170">
+        <v>6</v>
+      </c>
+      <c r="G170">
+        <v>5</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1">
+        <v>1511050</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>6</v>
+      </c>
+      <c r="E171">
+        <v>5</v>
+      </c>
+      <c r="F171">
+        <v>7</v>
+      </c>
+      <c r="G171">
+        <v>6</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1">
+        <v>1511051</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>9</v>
+      </c>
+      <c r="E172">
+        <v>7</v>
+      </c>
+      <c r="F172">
+        <v>6</v>
+      </c>
+      <c r="G172">
+        <v>5</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1511052</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>6</v>
+      </c>
+      <c r="E173">
+        <v>5</v>
+      </c>
+      <c r="F173">
+        <v>7</v>
+      </c>
+      <c r="G173">
+        <v>6</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1511053</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>9</v>
+      </c>
+      <c r="E174">
+        <v>7</v>
+      </c>
+      <c r="F174">
+        <v>6</v>
+      </c>
+      <c r="G174">
+        <v>5</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1511054</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>6</v>
+      </c>
+      <c r="E175">
+        <v>5</v>
+      </c>
+      <c r="F175">
+        <v>7</v>
+      </c>
+      <c r="G175">
+        <v>6</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1511055</v>
+      </c>
+      <c r="C176" t="s">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>9</v>
+      </c>
+      <c r="E176">
+        <v>7</v>
+      </c>
+      <c r="F176">
+        <v>6</v>
+      </c>
+      <c r="G176">
+        <v>5</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1511056</v>
+      </c>
+      <c r="C177" t="s">
+        <v>3</v>
+      </c>
+      <c r="D177">
+        <v>6</v>
+      </c>
+      <c r="E177">
+        <v>5</v>
+      </c>
+      <c r="F177">
+        <v>7</v>
+      </c>
+      <c r="G177">
+        <v>6</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1511057</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>9</v>
+      </c>
+      <c r="E178">
+        <v>7</v>
+      </c>
+      <c r="F178">
+        <v>6</v>
+      </c>
+      <c r="G178">
+        <v>5</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1511058</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179">
+        <v>6</v>
+      </c>
+      <c r="E179">
+        <v>5</v>
+      </c>
+      <c r="F179">
+        <v>7</v>
+      </c>
+      <c r="G179">
+        <v>6</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1">
+        <v>1511059</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180">
+        <v>9</v>
+      </c>
+      <c r="E180">
+        <v>7</v>
+      </c>
+      <c r="F180">
+        <v>6</v>
+      </c>
+      <c r="G180">
+        <v>5</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1">
+        <v>1511060</v>
+      </c>
+      <c r="C181" t="s">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>6</v>
+      </c>
+      <c r="E181">
+        <v>5</v>
+      </c>
+      <c r="F181">
+        <v>7</v>
+      </c>
+      <c r="G181">
+        <v>6</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1511061</v>
+      </c>
+      <c r="C182" t="s">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>9</v>
+      </c>
+      <c r="E182">
+        <v>7</v>
+      </c>
+      <c r="F182">
+        <v>6</v>
+      </c>
+      <c r="G182">
+        <v>5</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1511062</v>
+      </c>
+      <c r="C183" t="s">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>6</v>
+      </c>
+      <c r="E183">
+        <v>5</v>
+      </c>
+      <c r="F183">
+        <v>7</v>
+      </c>
+      <c r="G183">
+        <v>6</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1511063</v>
+      </c>
+      <c r="C184" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>9</v>
+      </c>
+      <c r="E184">
+        <v>7</v>
+      </c>
+      <c r="F184">
+        <v>6</v>
+      </c>
+      <c r="G184">
+        <v>5</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1511064</v>
+      </c>
+      <c r="C185" t="s">
+        <v>3</v>
+      </c>
+      <c r="D185">
+        <v>6</v>
+      </c>
+      <c r="E185">
+        <v>5</v>
+      </c>
+      <c r="F185">
+        <v>7</v>
+      </c>
+      <c r="G185">
+        <v>6</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1">
+        <v>1511065</v>
+      </c>
+      <c r="C186" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>9</v>
+      </c>
+      <c r="E186">
+        <v>7</v>
+      </c>
+      <c r="F186">
+        <v>6</v>
+      </c>
+      <c r="G186">
+        <v>5</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1">
+        <v>1511066</v>
+      </c>
+      <c r="C187" t="s">
+        <v>3</v>
+      </c>
+      <c r="D187">
+        <v>6</v>
+      </c>
+      <c r="E187">
+        <v>5</v>
+      </c>
+      <c r="F187">
+        <v>7</v>
+      </c>
+      <c r="G187">
+        <v>6</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1">
+        <v>1511067</v>
+      </c>
+      <c r="C188" t="s">
+        <v>3</v>
+      </c>
+      <c r="D188">
+        <v>9</v>
+      </c>
+      <c r="E188">
+        <v>7</v>
+      </c>
+      <c r="F188">
+        <v>6</v>
+      </c>
+      <c r="G188">
+        <v>5</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1511068</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189">
+        <v>6</v>
+      </c>
+      <c r="E189">
+        <v>5</v>
+      </c>
+      <c r="F189">
+        <v>7</v>
+      </c>
+      <c r="G189">
+        <v>6</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1">
+        <v>1511069</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190">
+        <v>9</v>
+      </c>
+      <c r="E190">
+        <v>7</v>
+      </c>
+      <c r="F190">
+        <v>6</v>
+      </c>
+      <c r="G190">
+        <v>5</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1">
+        <v>1511070</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191">
+        <v>6</v>
+      </c>
+      <c r="E191">
+        <v>5</v>
+      </c>
+      <c r="F191">
+        <v>7</v>
+      </c>
+      <c r="G191">
+        <v>6</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1">
+        <v>1511071</v>
+      </c>
+      <c r="C192" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192">
+        <v>9</v>
+      </c>
+      <c r="E192">
+        <v>7</v>
+      </c>
+      <c r="F192">
+        <v>6</v>
+      </c>
+      <c r="G192">
+        <v>5</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1511072</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>6</v>
+      </c>
+      <c r="E193">
+        <v>5</v>
+      </c>
+      <c r="F193">
+        <v>7</v>
+      </c>
+      <c r="G193">
+        <v>6</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1">
+        <v>1511073</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194">
+        <v>9</v>
+      </c>
+      <c r="E194">
+        <v>7</v>
+      </c>
+      <c r="F194">
+        <v>6</v>
+      </c>
+      <c r="G194">
+        <v>5</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1511074</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>6</v>
+      </c>
+      <c r="E195">
+        <v>5</v>
+      </c>
+      <c r="F195">
+        <v>7</v>
+      </c>
+      <c r="G195">
+        <v>6</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1">
+        <v>1511075</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <v>9</v>
+      </c>
+      <c r="E196">
+        <v>7</v>
+      </c>
+      <c r="F196">
+        <v>6</v>
+      </c>
+      <c r="G196">
+        <v>5</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1">
+        <v>1511076</v>
+      </c>
+      <c r="C197" t="s">
+        <v>3</v>
+      </c>
+      <c r="D197">
+        <v>6</v>
+      </c>
+      <c r="E197">
+        <v>5</v>
+      </c>
+      <c r="F197">
+        <v>7</v>
+      </c>
+      <c r="G197">
+        <v>6</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1">
+        <v>1511077</v>
+      </c>
+      <c r="C198" t="s">
+        <v>3</v>
+      </c>
+      <c r="D198">
+        <v>9</v>
+      </c>
+      <c r="E198">
+        <v>7</v>
+      </c>
+      <c r="F198">
+        <v>6</v>
+      </c>
+      <c r="G198">
+        <v>5</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1">
+        <v>1511078</v>
+      </c>
+      <c r="C199" t="s">
+        <v>3</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+      <c r="E199">
+        <v>5</v>
+      </c>
+      <c r="F199">
+        <v>7</v>
+      </c>
+      <c r="G199">
+        <v>6</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1">
+        <v>1511079</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>9</v>
+      </c>
+      <c r="E200">
+        <v>7</v>
+      </c>
+      <c r="F200">
+        <v>6</v>
+      </c>
+      <c r="G200">
+        <v>5</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1">
+        <v>1511080</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>6</v>
+      </c>
+      <c r="E201">
+        <v>5</v>
+      </c>
+      <c r="F201">
+        <v>7</v>
+      </c>
+      <c r="G201">
+        <v>6</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1">
+        <v>1511081</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202">
+        <v>7</v>
+      </c>
+      <c r="F202">
+        <v>6</v>
+      </c>
+      <c r="G202">
+        <v>5</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1">
+        <v>1511082</v>
+      </c>
+      <c r="C203" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203">
+        <v>6</v>
+      </c>
+      <c r="E203">
+        <v>5</v>
+      </c>
+      <c r="F203">
+        <v>7</v>
+      </c>
+      <c r="G203">
+        <v>6</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1">
+        <v>1511083</v>
+      </c>
+      <c r="C204" t="s">
+        <v>3</v>
+      </c>
+      <c r="D204">
+        <v>9</v>
+      </c>
+      <c r="E204">
+        <v>7</v>
+      </c>
+      <c r="F204">
+        <v>6</v>
+      </c>
+      <c r="G204">
+        <v>5</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1">
+        <v>1511084</v>
+      </c>
+      <c r="C205" t="s">
+        <v>3</v>
+      </c>
+      <c r="D205">
+        <v>6</v>
+      </c>
+      <c r="E205">
+        <v>5</v>
+      </c>
+      <c r="F205">
+        <v>7</v>
+      </c>
+      <c r="G205">
+        <v>6</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1">
+        <v>1511085</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>9</v>
+      </c>
+      <c r="E206">
+        <v>7</v>
+      </c>
+      <c r="F206">
+        <v>6</v>
+      </c>
+      <c r="G206">
+        <v>5</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1">
+        <v>1511086</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>6</v>
+      </c>
+      <c r="E207">
+        <v>5</v>
+      </c>
+      <c r="F207">
+        <v>7</v>
+      </c>
+      <c r="G207">
+        <v>6</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1">
+        <v>1511087</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>9</v>
+      </c>
+      <c r="E208">
+        <v>7</v>
+      </c>
+      <c r="F208">
+        <v>6</v>
+      </c>
+      <c r="G208">
+        <v>5</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1">
+        <v>1511088</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>6</v>
+      </c>
+      <c r="E209">
+        <v>5</v>
+      </c>
+      <c r="F209">
+        <v>7</v>
+      </c>
+      <c r="G209">
+        <v>6</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1">
+        <v>1511089</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>9</v>
+      </c>
+      <c r="E210">
+        <v>7</v>
+      </c>
+      <c r="F210">
+        <v>6</v>
+      </c>
+      <c r="G210">
+        <v>5</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1">
+        <v>1511090</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>6</v>
+      </c>
+      <c r="E211">
+        <v>5</v>
+      </c>
+      <c r="F211">
+        <v>7</v>
+      </c>
+      <c r="G211">
+        <v>6</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1">
+        <v>1511091</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>9</v>
+      </c>
+      <c r="E212">
+        <v>7</v>
+      </c>
+      <c r="F212">
+        <v>6</v>
+      </c>
+      <c r="G212">
+        <v>5</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1">
+        <v>1511092</v>
+      </c>
+      <c r="C213" t="s">
+        <v>3</v>
+      </c>
+      <c r="D213">
+        <v>6</v>
+      </c>
+      <c r="E213">
+        <v>5</v>
+      </c>
+      <c r="F213">
+        <v>7</v>
+      </c>
+      <c r="G213">
+        <v>6</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1">
+        <v>1511093</v>
+      </c>
+      <c r="C214" t="s">
+        <v>3</v>
+      </c>
+      <c r="D214">
+        <v>9</v>
+      </c>
+      <c r="E214">
+        <v>7</v>
+      </c>
+      <c r="F214">
+        <v>6</v>
+      </c>
+      <c r="G214">
+        <v>5</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1">
+        <v>1511094</v>
+      </c>
+      <c r="C215" t="s">
+        <v>3</v>
+      </c>
+      <c r="D215">
+        <v>6</v>
+      </c>
+      <c r="E215">
+        <v>5</v>
+      </c>
+      <c r="F215">
+        <v>7</v>
+      </c>
+      <c r="G215">
+        <v>6</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1">
+        <v>1511095</v>
+      </c>
+      <c r="C216" t="s">
+        <v>3</v>
+      </c>
+      <c r="D216">
+        <v>9</v>
+      </c>
+      <c r="E216">
+        <v>7</v>
+      </c>
+      <c r="F216">
+        <v>6</v>
+      </c>
+      <c r="G216">
+        <v>5</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1">
+        <v>1511096</v>
+      </c>
+      <c r="C217" t="s">
+        <v>3</v>
+      </c>
+      <c r="D217">
+        <v>6</v>
+      </c>
+      <c r="E217">
+        <v>5</v>
+      </c>
+      <c r="F217">
+        <v>7</v>
+      </c>
+      <c r="G217">
+        <v>6</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1">
+        <v>1511097</v>
+      </c>
+      <c r="C218" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218">
+        <v>9</v>
+      </c>
+      <c r="E218">
+        <v>7</v>
+      </c>
+      <c r="F218">
+        <v>6</v>
+      </c>
+      <c r="G218">
+        <v>5</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1">
+        <v>1511098</v>
+      </c>
+      <c r="C219" t="s">
+        <v>3</v>
+      </c>
+      <c r="D219">
+        <v>6</v>
+      </c>
+      <c r="E219">
+        <v>5</v>
+      </c>
+      <c r="F219">
+        <v>7</v>
+      </c>
+      <c r="G219">
+        <v>6</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1">
+        <v>1511099</v>
+      </c>
+      <c r="C220" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220">
+        <v>9</v>
+      </c>
+      <c r="E220">
+        <v>7</v>
+      </c>
+      <c r="F220">
+        <v>6</v>
+      </c>
+      <c r="G220">
+        <v>5</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1">
+        <v>1511100</v>
+      </c>
+      <c r="C221" t="s">
+        <v>3</v>
+      </c>
+      <c r="D221">
+        <v>6</v>
+      </c>
+      <c r="E221">
+        <v>5</v>
+      </c>
+      <c r="F221">
+        <v>7</v>
+      </c>
+      <c r="G221">
+        <v>6</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1">
+        <v>1511101</v>
+      </c>
+      <c r="C222" t="s">
+        <v>3</v>
+      </c>
+      <c r="D222">
+        <v>9</v>
+      </c>
+      <c r="E222">
+        <v>7</v>
+      </c>
+      <c r="F222">
+        <v>6</v>
+      </c>
+      <c r="G222">
+        <v>5</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1">
+        <v>1511102</v>
+      </c>
+      <c r="C223" t="s">
+        <v>3</v>
+      </c>
+      <c r="D223">
+        <v>6</v>
+      </c>
+      <c r="E223">
+        <v>5</v>
+      </c>
+      <c r="F223">
+        <v>7</v>
+      </c>
+      <c r="G223">
+        <v>6</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1">
+        <v>1511103</v>
+      </c>
+      <c r="C224" t="s">
+        <v>3</v>
+      </c>
+      <c r="D224">
+        <v>9</v>
+      </c>
+      <c r="E224">
+        <v>7</v>
+      </c>
+      <c r="F224">
+        <v>6</v>
+      </c>
+      <c r="G224">
+        <v>5</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1">
+        <v>1511104</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>6</v>
+      </c>
+      <c r="E225">
+        <v>5</v>
+      </c>
+      <c r="F225">
+        <v>7</v>
+      </c>
+      <c r="G225">
+        <v>6</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1">
+        <v>1511105</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>9</v>
+      </c>
+      <c r="E226">
+        <v>7</v>
+      </c>
+      <c r="F226">
+        <v>6</v>
+      </c>
+      <c r="G226">
+        <v>5</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1">
+        <v>1511106</v>
+      </c>
+      <c r="C227" t="s">
+        <v>3</v>
+      </c>
+      <c r="D227">
+        <v>6</v>
+      </c>
+      <c r="E227">
+        <v>5</v>
+      </c>
+      <c r="F227">
+        <v>7</v>
+      </c>
+      <c r="G227">
+        <v>6</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1">
+        <v>1511107</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>9</v>
+      </c>
+      <c r="E228">
+        <v>7</v>
+      </c>
+      <c r="F228">
+        <v>6</v>
+      </c>
+      <c r="G228">
+        <v>5</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1">
+        <v>1511108</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>6</v>
+      </c>
+      <c r="E229">
+        <v>5</v>
+      </c>
+      <c r="F229">
+        <v>7</v>
+      </c>
+      <c r="G229">
+        <v>6</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1">
+        <v>1511109</v>
+      </c>
+      <c r="C230" t="s">
+        <v>3</v>
+      </c>
+      <c r="D230">
+        <v>9</v>
+      </c>
+      <c r="E230">
+        <v>7</v>
+      </c>
+      <c r="F230">
+        <v>6</v>
+      </c>
+      <c r="G230">
+        <v>5</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1">
+        <v>1511110</v>
+      </c>
+      <c r="C231" t="s">
+        <v>3</v>
+      </c>
+      <c r="D231">
+        <v>6</v>
+      </c>
+      <c r="E231">
+        <v>5</v>
+      </c>
+      <c r="F231">
+        <v>7</v>
+      </c>
+      <c r="G231">
+        <v>6</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1">
+        <v>1511111</v>
+      </c>
+      <c r="C232" t="s">
+        <v>3</v>
+      </c>
+      <c r="D232">
+        <v>9</v>
+      </c>
+      <c r="E232">
+        <v>7</v>
+      </c>
+      <c r="F232">
+        <v>6</v>
+      </c>
+      <c r="G232">
+        <v>5</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1">
+        <v>1511112</v>
+      </c>
+      <c r="C233" t="s">
+        <v>3</v>
+      </c>
+      <c r="D233">
+        <v>6</v>
+      </c>
+      <c r="E233">
+        <v>5</v>
+      </c>
+      <c r="F233">
+        <v>7</v>
+      </c>
+      <c r="G233">
+        <v>6</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1">
+        <v>1511113</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>9</v>
+      </c>
+      <c r="E234">
+        <v>7</v>
+      </c>
+      <c r="F234">
+        <v>6</v>
+      </c>
+      <c r="G234">
+        <v>5</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1">
+        <v>1511114</v>
+      </c>
+      <c r="C235" t="s">
+        <v>3</v>
+      </c>
+      <c r="D235">
+        <v>6</v>
+      </c>
+      <c r="E235">
+        <v>5</v>
+      </c>
+      <c r="F235">
+        <v>7</v>
+      </c>
+      <c r="G235">
+        <v>6</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1">
+        <v>1511115</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>9</v>
+      </c>
+      <c r="E236">
+        <v>7</v>
+      </c>
+      <c r="F236">
+        <v>6</v>
+      </c>
+      <c r="G236">
+        <v>5</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1">
+        <v>1511116</v>
+      </c>
+      <c r="C237" t="s">
+        <v>3</v>
+      </c>
+      <c r="D237">
+        <v>6</v>
+      </c>
+      <c r="E237">
+        <v>5</v>
+      </c>
+      <c r="F237">
+        <v>7</v>
+      </c>
+      <c r="G237">
+        <v>6</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1">
+        <v>1511117</v>
+      </c>
+      <c r="C238" t="s">
+        <v>3</v>
+      </c>
+      <c r="D238">
+        <v>9</v>
+      </c>
+      <c r="E238">
+        <v>7</v>
+      </c>
+      <c r="F238">
+        <v>6</v>
+      </c>
+      <c r="G238">
+        <v>5</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1">
+        <v>1511118</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>6</v>
+      </c>
+      <c r="E239">
+        <v>5</v>
+      </c>
+      <c r="F239">
+        <v>7</v>
+      </c>
+      <c r="G239">
+        <v>6</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1">
+        <v>1511119</v>
+      </c>
+      <c r="C240" t="s">
+        <v>3</v>
+      </c>
+      <c r="D240">
+        <v>9</v>
+      </c>
+      <c r="E240">
+        <v>7</v>
+      </c>
+      <c r="F240">
+        <v>6</v>
+      </c>
+      <c r="G240">
+        <v>5</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1">
+        <v>1511120</v>
+      </c>
+      <c r="C241" t="s">
+        <v>3</v>
+      </c>
+      <c r="D241">
+        <v>6</v>
+      </c>
+      <c r="E241">
+        <v>5</v>
+      </c>
+      <c r="F241">
+        <v>7</v>
+      </c>
+      <c r="G241">
+        <v>6</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/admin/ajax/tmp/data2.xlsx
+++ b/admin/ajax/tmp/data2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="12">
   <si>
     <t>Dominant</t>
   </si>
@@ -61,21 +61,22 @@
   <si>
     <t>Periode</t>
   </si>
-  <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
-    <t>2018/2019</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -112,14 +113,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,19 +446,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:H263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123:H241"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -439,12 +485,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1411001</v>
+      <c r="B2" s="2">
+        <v>15120006</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -461,16 +507,16 @@
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1411002</v>
+      <c r="B3" s="3">
+        <v>15110114</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -487,16 +533,16 @@
       <c r="G3">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1411003</v>
+      <c r="B4" s="3">
+        <v>15110218</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -513,16 +559,16 @@
       <c r="G4">
         <v>5</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>1411004</v>
+      <c r="B5" s="3">
+        <v>15110121</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -539,16 +585,16 @@
       <c r="G5">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>1411005</v>
+      <c r="B6" s="3">
+        <v>15110128</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -565,16 +611,16 @@
       <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1411006</v>
+      <c r="B7" s="3">
+        <v>14110313</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -591,16 +637,16 @@
       <c r="G7">
         <v>6</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>1411007</v>
+      <c r="B8" s="3">
+        <v>16110293</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -617,16 +663,16 @@
       <c r="G8">
         <v>5</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>1411008</v>
+      <c r="B9" s="3">
+        <v>15120120</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -643,16 +689,16 @@
       <c r="G9">
         <v>6</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>1411009</v>
+      <c r="B10" s="3">
+        <v>15110190</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -669,16 +715,16 @@
       <c r="G10">
         <v>5</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>1411010</v>
+      <c r="B11" s="3">
+        <v>15110261</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -695,16 +741,16 @@
       <c r="G11">
         <v>6</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>1411011</v>
+      <c r="B12" s="2">
+        <v>14120161</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -721,16 +767,16 @@
       <c r="G12">
         <v>5</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>1411012</v>
+      <c r="B13" s="3">
+        <v>15120145</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -747,16 +793,16 @@
       <c r="G13">
         <v>6</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>1411013</v>
+      <c r="B14" s="3">
+        <v>15120129</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -773,16 +819,16 @@
       <c r="G14">
         <v>5</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>1411014</v>
+      <c r="B15" s="3">
+        <v>15110062</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -799,16 +845,16 @@
       <c r="G15">
         <v>6</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>1411015</v>
+      <c r="B16" s="3">
+        <v>15110140</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -825,16 +871,16 @@
       <c r="G16">
         <v>5</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>1411016</v>
+      <c r="B17" s="3">
+        <v>14110293</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -851,16 +897,16 @@
       <c r="G17">
         <v>6</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>1411017</v>
+      <c r="B18" s="3">
+        <v>14110076</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -877,16 +923,16 @@
       <c r="G18">
         <v>5</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>1411018</v>
+      <c r="B19" s="3">
+        <v>15120029</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -903,16 +949,16 @@
       <c r="G19">
         <v>6</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>1411019</v>
+      <c r="B20" s="3">
+        <v>15120084</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -929,16 +975,16 @@
       <c r="G20">
         <v>5</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>1411020</v>
+      <c r="B21" s="3">
+        <v>15110281</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -955,16 +1001,16 @@
       <c r="G21">
         <v>6</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>1411021</v>
+      <c r="B22" s="2">
+        <v>15120127</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -981,16 +1027,16 @@
       <c r="G22">
         <v>5</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>1411022</v>
+      <c r="B23" s="3">
+        <v>14120089</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1007,16 +1053,16 @@
       <c r="G23">
         <v>6</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>1411023</v>
+      <c r="B24" s="3">
+        <v>15110166</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -1033,16 +1079,16 @@
       <c r="G24">
         <v>5</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>1411024</v>
+      <c r="B25" s="3">
+        <v>15110316</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -1059,16 +1105,16 @@
       <c r="G25">
         <v>6</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>1411025</v>
+      <c r="B26" s="3">
+        <v>14110199</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1085,16 +1131,16 @@
       <c r="G26">
         <v>5</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>1411026</v>
+      <c r="B27" s="3">
+        <v>15110192</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1111,16 +1157,16 @@
       <c r="G27">
         <v>6</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>1411027</v>
+      <c r="B28" s="3">
+        <v>15110239</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1137,16 +1183,16 @@
       <c r="G28">
         <v>5</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>1411028</v>
+      <c r="B29" s="3">
+        <v>15120071</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -1163,16 +1209,16 @@
       <c r="G29">
         <v>6</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>1411029</v>
+      <c r="B30" s="3">
+        <v>15120170</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -1189,16 +1235,16 @@
       <c r="G30">
         <v>5</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>1411030</v>
+      <c r="B31" s="3">
+        <v>15110229</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -1215,16 +1261,16 @@
       <c r="G31">
         <v>6</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>1411031</v>
+      <c r="B32" s="2">
+        <v>15120109</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1241,16 +1287,16 @@
       <c r="G32">
         <v>5</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
-        <v>1411032</v>
+      <c r="B33" s="3">
+        <v>15110122</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -1267,16 +1313,16 @@
       <c r="G33">
         <v>6</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
-        <v>1411033</v>
+      <c r="B34" s="3">
+        <v>14110314</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -1293,16 +1339,16 @@
       <c r="G34">
         <v>5</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
-        <v>1411034</v>
+      <c r="B35" s="3">
+        <v>15110180</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -1319,16 +1365,16 @@
       <c r="G35">
         <v>6</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
-        <v>1411035</v>
+      <c r="B36" s="3">
+        <v>15110105</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -1345,16 +1391,16 @@
       <c r="G36">
         <v>5</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>1411036</v>
+      <c r="B37" s="3">
+        <v>14110058</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -1371,16 +1417,16 @@
       <c r="G37">
         <v>6</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>1411037</v>
+      <c r="B38" s="3">
+        <v>14110218</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1397,16 +1443,16 @@
       <c r="G38">
         <v>5</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>1411038</v>
+      <c r="B39" s="3">
+        <v>15120005</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1423,16 +1469,16 @@
       <c r="G39">
         <v>6</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>1411039</v>
+      <c r="B40" s="2">
+        <v>15120004</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1449,16 +1495,16 @@
       <c r="G40">
         <v>5</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
-        <v>1411040</v>
+      <c r="B41" s="3">
+        <v>15120156</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -1475,16 +1521,16 @@
       <c r="G41">
         <v>6</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
-        <v>1411041</v>
+      <c r="B42" s="2">
+        <v>14120256</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -1501,16 +1547,16 @@
       <c r="G42">
         <v>5</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
-        <v>1411042</v>
+      <c r="B43" s="3">
+        <v>15120098</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -1527,16 +1573,16 @@
       <c r="G43">
         <v>6</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
-        <v>1411043</v>
+      <c r="B44" s="3">
+        <v>15120139</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1553,16 +1599,16 @@
       <c r="G44">
         <v>5</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
-        <v>1411044</v>
+      <c r="B45" s="3">
+        <v>15110130</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -1579,16 +1625,16 @@
       <c r="G45">
         <v>6</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
-        <v>1411045</v>
+      <c r="B46" s="3">
+        <v>15110302</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -1605,16 +1651,16 @@
       <c r="G46">
         <v>5</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
-        <v>1411046</v>
+      <c r="B47" s="3">
+        <v>14110077</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -1631,16 +1677,16 @@
       <c r="G47">
         <v>6</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
-        <v>1411047</v>
+      <c r="B48" s="3">
+        <v>16110015</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -1657,16 +1703,16 @@
       <c r="G48">
         <v>5</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
-        <v>1411048</v>
+      <c r="B49" s="2">
+        <v>15120162</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1683,16 +1729,16 @@
       <c r="G49">
         <v>6</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
-        <v>1411049</v>
+      <c r="B50" s="3">
+        <v>15120032</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -1709,16 +1755,16 @@
       <c r="G50">
         <v>5</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
-        <v>1411050</v>
+      <c r="B51" s="3">
+        <v>15110219</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -1735,16 +1781,16 @@
       <c r="G51">
         <v>6</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
-        <v>1411051</v>
+      <c r="B52" s="2">
+        <v>15120123</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -1761,16 +1807,16 @@
       <c r="G52">
         <v>5</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
-        <v>1411052</v>
+      <c r="B53" s="3">
+        <v>15120187</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -1787,16 +1833,16 @@
       <c r="G53">
         <v>6</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
-        <v>1411053</v>
+      <c r="B54" s="3">
+        <v>15120169</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -1813,16 +1859,16 @@
       <c r="G54">
         <v>5</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
-        <v>1411054</v>
+      <c r="B55" s="3">
+        <v>15120188</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -1839,16 +1885,16 @@
       <c r="G55">
         <v>6</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H55" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
-        <v>1411055</v>
+      <c r="B56" s="3">
+        <v>15120062</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -1865,16 +1911,16 @@
       <c r="G56">
         <v>5</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
-        <v>1411056</v>
+      <c r="B57" s="3">
+        <v>14110190</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -1891,16 +1937,16 @@
       <c r="G57">
         <v>6</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
-        <v>1411057</v>
+      <c r="B58" s="3">
+        <v>15110301</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -1917,16 +1963,16 @@
       <c r="G58">
         <v>5</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H58" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
-        <v>1411058</v>
+      <c r="B59" s="3">
+        <v>15120176</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -1943,16 +1989,16 @@
       <c r="G59">
         <v>6</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
-        <v>1411059</v>
+      <c r="B60" s="3">
+        <v>15120083</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -1969,16 +2015,16 @@
       <c r="G60">
         <v>5</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
-        <v>1411060</v>
+      <c r="B61" s="3">
+        <v>15110238</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
@@ -1995,16 +2041,16 @@
       <c r="G61">
         <v>6</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
-        <v>1411061</v>
+      <c r="B62" s="2">
+        <v>13120075</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
@@ -2021,16 +2067,16 @@
       <c r="G62">
         <v>5</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
-        <v>1411062</v>
+      <c r="B63" s="3">
+        <v>15110124</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
@@ -2047,16 +2093,16 @@
       <c r="G63">
         <v>6</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
-        <v>1411063</v>
+      <c r="B64" s="3">
+        <v>15110200</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -2073,16 +2119,16 @@
       <c r="G64">
         <v>5</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H64" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
-        <v>1411064</v>
+      <c r="B65" s="3">
+        <v>15110033</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -2099,16 +2145,16 @@
       <c r="G65">
         <v>6</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
-        <v>1411065</v>
+      <c r="B66" s="3">
+        <v>15110269</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -2125,16 +2171,16 @@
       <c r="G66">
         <v>5</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
-        <v>1411066</v>
+      <c r="B67" s="3">
+        <v>15110102</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -2151,16 +2197,16 @@
       <c r="G67">
         <v>6</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H67" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
-        <v>1411067</v>
+      <c r="B68" s="3">
+        <v>15110132</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
@@ -2177,16 +2223,16 @@
       <c r="G68">
         <v>5</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H68" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
-        <v>1411068</v>
+      <c r="B69" s="3">
+        <v>15120184</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -2203,16 +2249,16 @@
       <c r="G69">
         <v>6</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H69" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
-        <v>1411069</v>
+      <c r="B70" s="3">
+        <v>15120054</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -2229,16 +2275,16 @@
       <c r="G70">
         <v>5</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H70" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
-        <v>1411070</v>
+      <c r="B71" s="3">
+        <v>15110292</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -2255,16 +2301,16 @@
       <c r="G71">
         <v>6</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H71" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="1">
-        <v>1411071</v>
+      <c r="B72" s="2">
+        <v>13120055</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -2281,16 +2327,16 @@
       <c r="G72">
         <v>5</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H72" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
-        <v>1411072</v>
+      <c r="B73" s="3">
+        <v>15120039</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -2307,16 +2353,16 @@
       <c r="G73">
         <v>6</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H73" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
-        <v>1411073</v>
+      <c r="B74" s="2">
+        <v>15120052</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -2333,16 +2379,16 @@
       <c r="G74">
         <v>5</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H74" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
-        <v>1411074</v>
+      <c r="B75" s="3">
+        <v>15120097</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -2359,16 +2405,16 @@
       <c r="G75">
         <v>6</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H75" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="1">
-        <v>1411075</v>
+      <c r="B76" s="3">
+        <v>15120122</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -2385,16 +2431,16 @@
       <c r="G76">
         <v>5</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H76" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
-        <v>1411076</v>
+      <c r="B77" s="3">
+        <v>14110214</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -2411,16 +2457,16 @@
       <c r="G77">
         <v>6</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H77" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="1">
-        <v>1411077</v>
+      <c r="B78" s="3">
+        <v>15110111</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -2437,16 +2483,16 @@
       <c r="G78">
         <v>5</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H78" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="1">
-        <v>1411078</v>
+      <c r="B79" s="3">
+        <v>15120151</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -2463,16 +2509,16 @@
       <c r="G79">
         <v>6</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H79" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="1">
-        <v>1411079</v>
+      <c r="B80" s="3">
+        <v>15120016</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -2489,16 +2535,16 @@
       <c r="G80">
         <v>5</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H80" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
-        <v>1411080</v>
+      <c r="B81" s="3">
+        <v>15110247</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -2515,16 +2561,16 @@
       <c r="G81">
         <v>6</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H81" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
-        <v>1411081</v>
+      <c r="B82" s="2">
+        <v>15120047</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -2541,16 +2587,16 @@
       <c r="G82">
         <v>5</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H82" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="1">
-        <v>1411082</v>
+      <c r="B83" s="3">
+        <v>15120026</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -2567,16 +2613,16 @@
       <c r="G83">
         <v>6</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H83" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="1">
-        <v>1411083</v>
+      <c r="B84" s="3">
+        <v>14120228</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -2593,16 +2639,16 @@
       <c r="G84">
         <v>5</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H84" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="1">
-        <v>1411084</v>
+      <c r="B85" s="3">
+        <v>15120078</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -2619,16 +2665,16 @@
       <c r="G85">
         <v>6</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H85" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="1">
-        <v>1411085</v>
+      <c r="B86" s="3">
+        <v>15110134</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -2645,16 +2691,16 @@
       <c r="G86">
         <v>5</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H86" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="1">
-        <v>1411086</v>
+      <c r="B87" s="3">
+        <v>14110353</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -2671,16 +2717,16 @@
       <c r="G87">
         <v>6</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H87" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="1">
-        <v>1411087</v>
+      <c r="B88" s="3">
+        <v>15110110</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
@@ -2697,16 +2743,16 @@
       <c r="G88">
         <v>5</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H88" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="1">
-        <v>1411088</v>
+      <c r="B89" s="3">
+        <v>15120027</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
@@ -2723,16 +2769,16 @@
       <c r="G89">
         <v>6</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H89" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="1">
-        <v>1411089</v>
+      <c r="B90" s="3">
+        <v>15120042</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
@@ -2749,16 +2795,16 @@
       <c r="G90">
         <v>5</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H90" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="1">
-        <v>1411090</v>
+      <c r="B91" s="3">
+        <v>15110171</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -2775,16 +2821,16 @@
       <c r="G91">
         <v>6</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H91" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="1">
-        <v>1411091</v>
+      <c r="B92" s="2">
+        <v>14120157</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -2801,16 +2847,16 @@
       <c r="G92">
         <v>5</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H92" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="1">
-        <v>1411092</v>
+      <c r="B93" s="3">
+        <v>15110184</v>
       </c>
       <c r="C93" t="s">
         <v>3</v>
@@ -2827,16 +2873,16 @@
       <c r="G93">
         <v>6</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H93" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="1">
-        <v>1411093</v>
+      <c r="B94" s="3">
+        <v>15110108</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
@@ -2853,16 +2899,16 @@
       <c r="G94">
         <v>5</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H94" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="1">
-        <v>1411094</v>
+      <c r="B95" s="3">
+        <v>15110167</v>
       </c>
       <c r="C95" t="s">
         <v>3</v>
@@ -2879,16 +2925,16 @@
       <c r="G95">
         <v>6</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H95" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="1">
-        <v>1411095</v>
+      <c r="B96" s="3">
+        <v>15110274</v>
       </c>
       <c r="C96" t="s">
         <v>3</v>
@@ -2905,16 +2951,16 @@
       <c r="G96">
         <v>5</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H96" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="1">
-        <v>1411096</v>
+      <c r="B97" s="3">
+        <v>15110107</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -2931,16 +2977,16 @@
       <c r="G97">
         <v>6</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H97" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="1">
-        <v>1411097</v>
+      <c r="B98" s="3">
+        <v>14110086</v>
       </c>
       <c r="C98" t="s">
         <v>3</v>
@@ -2957,16 +3003,16 @@
       <c r="G98">
         <v>5</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H98" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="1">
-        <v>1411098</v>
+      <c r="B99" s="3">
+        <v>15120179</v>
       </c>
       <c r="C99" t="s">
         <v>3</v>
@@ -2983,16 +3029,16 @@
       <c r="G99">
         <v>6</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H99" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="1">
-        <v>1411099</v>
+      <c r="B100" s="3">
+        <v>15110233</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
@@ -3009,16 +3055,16 @@
       <c r="G100">
         <v>5</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H100" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="1">
-        <v>1411100</v>
+      <c r="B101" s="3">
+        <v>15110333</v>
       </c>
       <c r="C101" t="s">
         <v>3</v>
@@ -3035,16 +3081,16 @@
       <c r="G101">
         <v>6</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H101" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="1">
-        <v>1411101</v>
+      <c r="B102" s="2">
+        <v>15120041</v>
       </c>
       <c r="C102" t="s">
         <v>3</v>
@@ -3061,16 +3107,16 @@
       <c r="G102">
         <v>5</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H102" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="1">
-        <v>1411102</v>
+      <c r="B103" s="3">
+        <v>13120120</v>
       </c>
       <c r="C103" t="s">
         <v>3</v>
@@ -3087,16 +3133,16 @@
       <c r="G103">
         <v>6</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H103" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="1">
-        <v>1411103</v>
+      <c r="B104" s="3">
+        <v>14120224</v>
       </c>
       <c r="C104" t="s">
         <v>3</v>
@@ -3113,16 +3159,16 @@
       <c r="G104">
         <v>5</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H104" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="1">
-        <v>1411104</v>
+      <c r="B105" s="3">
+        <v>14110136</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -3139,16 +3185,16 @@
       <c r="G105">
         <v>6</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H105" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="1">
-        <v>1411105</v>
+      <c r="B106" s="3">
+        <v>14110052</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -3165,16 +3211,16 @@
       <c r="G106">
         <v>5</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H106" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="1">
-        <v>1411106</v>
+      <c r="B107" s="3">
+        <v>15110262</v>
       </c>
       <c r="C107" t="s">
         <v>3</v>
@@ -3191,16 +3237,16 @@
       <c r="G107">
         <v>6</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H107" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="1">
-        <v>1411107</v>
+      <c r="B108" s="3">
+        <v>15110263</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -3217,16 +3263,16 @@
       <c r="G108">
         <v>5</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H108" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="1">
-        <v>1411108</v>
+      <c r="B109" s="3">
+        <v>15120102</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -3243,16 +3289,16 @@
       <c r="G109">
         <v>6</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H109" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="1">
-        <v>1411109</v>
+      <c r="B110" s="3">
+        <v>15110137</v>
       </c>
       <c r="C110" t="s">
         <v>3</v>
@@ -3269,16 +3315,16 @@
       <c r="G110">
         <v>5</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H110" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="1">
-        <v>1411110</v>
+      <c r="B111" s="3">
+        <v>15110088</v>
       </c>
       <c r="C111" t="s">
         <v>3</v>
@@ -3295,16 +3341,16 @@
       <c r="G111">
         <v>6</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H111" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" s="1">
-        <v>1411111</v>
+      <c r="B112" s="3">
+        <v>15120064</v>
       </c>
       <c r="C112" t="s">
         <v>3</v>
@@ -3321,16 +3367,16 @@
       <c r="G112">
         <v>5</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H112" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" s="1">
-        <v>1411112</v>
+      <c r="B113" s="3">
+        <v>15120121</v>
       </c>
       <c r="C113" t="s">
         <v>3</v>
@@ -3347,16 +3393,16 @@
       <c r="G113">
         <v>6</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H113" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" s="1">
-        <v>1411113</v>
+      <c r="B114" s="3">
+        <v>15120019</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
@@ -3373,16 +3419,16 @@
       <c r="G114">
         <v>5</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H114" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" s="1">
-        <v>1411114</v>
+      <c r="B115" s="3">
+        <v>14110364</v>
       </c>
       <c r="C115" t="s">
         <v>3</v>
@@ -3399,16 +3445,16 @@
       <c r="G115">
         <v>6</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H115" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" s="1">
-        <v>1411115</v>
+      <c r="B116" s="3">
+        <v>15110339</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
@@ -3425,16 +3471,16 @@
       <c r="G116">
         <v>5</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H116" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" s="1">
-        <v>1411116</v>
+      <c r="B117" s="3">
+        <v>15110003</v>
       </c>
       <c r="C117" t="s">
         <v>3</v>
@@ -3451,16 +3497,16 @@
       <c r="G117">
         <v>6</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H117" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" s="1">
-        <v>1411117</v>
+      <c r="B118" s="3">
+        <v>13110051</v>
       </c>
       <c r="C118" t="s">
         <v>3</v>
@@ -3477,16 +3523,16 @@
       <c r="G118">
         <v>5</v>
       </c>
-      <c r="H118" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H118" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" s="1">
-        <v>1411118</v>
+      <c r="B119" s="3">
+        <v>15120116</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
@@ -3503,16 +3549,16 @@
       <c r="G119">
         <v>6</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H119" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" s="1">
-        <v>1411119</v>
+      <c r="B120" s="3">
+        <v>15120025</v>
       </c>
       <c r="C120" t="s">
         <v>3</v>
@@ -3529,16 +3575,16 @@
       <c r="G120">
         <v>5</v>
       </c>
-      <c r="H120" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H120" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" s="1">
-        <v>1411120</v>
+      <c r="B121" s="3">
+        <v>15110145</v>
       </c>
       <c r="C121" t="s">
         <v>3</v>
@@ -3555,16 +3601,16 @@
       <c r="G121">
         <v>6</v>
       </c>
-      <c r="H121" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H121" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" s="1">
-        <v>1511001</v>
+      <c r="B122" s="3">
+        <v>15110016</v>
       </c>
       <c r="C122" t="s">
         <v>0</v>
@@ -3581,16 +3627,16 @@
       <c r="G122">
         <v>5</v>
       </c>
-      <c r="H122" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H122" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" s="1">
-        <v>1511002</v>
+      <c r="B123" s="3">
+        <v>14110125</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
@@ -3607,16 +3653,16 @@
       <c r="G123">
         <v>6</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H123" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" s="1">
-        <v>1511003</v>
+      <c r="B124" s="3">
+        <v>13110310</v>
       </c>
       <c r="C124" t="s">
         <v>0</v>
@@ -3633,16 +3679,16 @@
       <c r="G124">
         <v>5</v>
       </c>
-      <c r="H124" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H124" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" s="1">
-        <v>1511004</v>
+      <c r="B125" s="3">
+        <v>15110275</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -3659,16 +3705,16 @@
       <c r="G125">
         <v>6</v>
       </c>
-      <c r="H125" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H125" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" s="1">
-        <v>1511005</v>
+      <c r="B126" s="3">
+        <v>14110256</v>
       </c>
       <c r="C126" t="s">
         <v>3</v>
@@ -3685,16 +3731,16 @@
       <c r="G126">
         <v>5</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H126" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" s="1">
-        <v>1511006</v>
+      <c r="B127" s="3">
+        <v>14110083</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
@@ -3711,16 +3757,16 @@
       <c r="G127">
         <v>6</v>
       </c>
-      <c r="H127" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H127" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" s="1">
-        <v>1511007</v>
+      <c r="B128" s="2">
+        <v>15110225</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
@@ -3737,16 +3783,16 @@
       <c r="G128">
         <v>5</v>
       </c>
-      <c r="H128" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H128" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" s="1">
-        <v>1511008</v>
+      <c r="B129" s="3">
+        <v>15120132</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
@@ -3763,16 +3809,16 @@
       <c r="G129">
         <v>6</v>
       </c>
-      <c r="H129" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H129" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="B130" s="1">
-        <v>1511009</v>
+      <c r="B130" s="3">
+        <v>14110334</v>
       </c>
       <c r="C130" t="s">
         <v>3</v>
@@ -3789,16 +3835,16 @@
       <c r="G130">
         <v>5</v>
       </c>
-      <c r="H130" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H130" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131" s="1">
-        <v>1511010</v>
+      <c r="B131" s="3">
+        <v>15110152</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
@@ -3815,16 +3861,16 @@
       <c r="G131">
         <v>6</v>
       </c>
-      <c r="H131" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H131" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132" s="1">
-        <v>1511011</v>
+      <c r="B132" s="2">
+        <v>14120148</v>
       </c>
       <c r="C132" t="s">
         <v>2</v>
@@ -3841,16 +3887,16 @@
       <c r="G132">
         <v>5</v>
       </c>
-      <c r="H132" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H132" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
-      <c r="B133" s="1">
-        <v>1511012</v>
+      <c r="B133" s="3">
+        <v>15110295</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
@@ -3867,16 +3913,16 @@
       <c r="G133">
         <v>6</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H133" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="B134" s="1">
-        <v>1511013</v>
+      <c r="B134" s="3">
+        <v>14110171</v>
       </c>
       <c r="C134" t="s">
         <v>3</v>
@@ -3893,16 +3939,16 @@
       <c r="G134">
         <v>5</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H134" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" s="1">
-        <v>1511014</v>
+      <c r="B135" s="3">
+        <v>15110103</v>
       </c>
       <c r="C135" t="s">
         <v>3</v>
@@ -3919,16 +3965,16 @@
       <c r="G135">
         <v>6</v>
       </c>
-      <c r="H135" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H135" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" s="1">
-        <v>1511015</v>
+      <c r="B136" s="3">
+        <v>15110185</v>
       </c>
       <c r="C136" t="s">
         <v>0</v>
@@ -3945,16 +3991,16 @@
       <c r="G136">
         <v>5</v>
       </c>
-      <c r="H136" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H136" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" s="1">
-        <v>1511016</v>
+      <c r="B137" s="3">
+        <v>15110258</v>
       </c>
       <c r="C137" t="s">
         <v>3</v>
@@ -3971,16 +4017,16 @@
       <c r="G137">
         <v>6</v>
       </c>
-      <c r="H137" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H137" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138" s="1">
-        <v>1511017</v>
+      <c r="B138" s="3">
+        <v>15110117</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
@@ -3997,16 +4043,16 @@
       <c r="G138">
         <v>5</v>
       </c>
-      <c r="H138" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H138" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139" s="1">
-        <v>1511018</v>
+      <c r="B139" s="3">
+        <v>15120003</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
@@ -4023,16 +4069,16 @@
       <c r="G139">
         <v>6</v>
       </c>
-      <c r="H139" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H139" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="B140" s="1">
-        <v>1511019</v>
+      <c r="B140" s="3">
+        <v>15120148</v>
       </c>
       <c r="C140" t="s">
         <v>2</v>
@@ -4049,16 +4095,16 @@
       <c r="G140">
         <v>5</v>
       </c>
-      <c r="H140" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H140" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="B141" s="1">
-        <v>1511020</v>
+      <c r="B141" s="3">
+        <v>15120112</v>
       </c>
       <c r="C141" t="s">
         <v>2</v>
@@ -4075,16 +4121,16 @@
       <c r="G141">
         <v>6</v>
       </c>
-      <c r="H141" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H141" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142" s="1">
-        <v>1511021</v>
+      <c r="B142" s="2">
+        <v>15120046</v>
       </c>
       <c r="C142" t="s">
         <v>2</v>
@@ -4101,16 +4147,16 @@
       <c r="G142">
         <v>5</v>
       </c>
-      <c r="H142" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H142" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" s="1">
-        <v>1511022</v>
+      <c r="B143" s="3">
+        <v>14110102</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
@@ -4127,16 +4173,16 @@
       <c r="G143">
         <v>6</v>
       </c>
-      <c r="H143" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H143" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
-      <c r="B144" s="1">
-        <v>1511023</v>
+      <c r="B144" s="3">
+        <v>13110240</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
@@ -4153,16 +4199,16 @@
       <c r="G144">
         <v>5</v>
       </c>
-      <c r="H144" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H144" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="B145" s="1">
-        <v>1511024</v>
+      <c r="B145" s="3">
+        <v>15110249</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
@@ -4179,16 +4225,16 @@
       <c r="G145">
         <v>6</v>
       </c>
-      <c r="H145" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H145" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146" s="1">
-        <v>1511025</v>
+      <c r="B146" s="3">
+        <v>15110175</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
@@ -4205,16 +4251,16 @@
       <c r="G146">
         <v>5</v>
       </c>
-      <c r="H146" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H146" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147" s="1">
-        <v>1511026</v>
+      <c r="B147" s="3">
+        <v>15110027</v>
       </c>
       <c r="C147" t="s">
         <v>3</v>
@@ -4231,16 +4277,16 @@
       <c r="G147">
         <v>6</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H147" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" s="1">
-        <v>1511027</v>
+      <c r="B148" s="3">
+        <v>15110123</v>
       </c>
       <c r="C148" t="s">
         <v>3</v>
@@ -4257,16 +4303,16 @@
       <c r="G148">
         <v>5</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H148" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" s="1">
-        <v>1511028</v>
+      <c r="B149" s="3">
+        <v>15120117</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
@@ -4283,16 +4329,16 @@
       <c r="G149">
         <v>6</v>
       </c>
-      <c r="H149" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H149" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="B150" s="1">
-        <v>1511029</v>
+      <c r="B150" s="3">
+        <v>15120143</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
@@ -4309,16 +4355,16 @@
       <c r="G150">
         <v>5</v>
       </c>
-      <c r="H150" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H150" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" s="1">
-        <v>1511030</v>
+      <c r="B151" s="3">
+        <v>15120141</v>
       </c>
       <c r="C151" t="s">
         <v>3</v>
@@ -4335,16 +4381,16 @@
       <c r="G151">
         <v>6</v>
       </c>
-      <c r="H151" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H151" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="B152" s="1">
-        <v>1511031</v>
+      <c r="B152" s="2">
+        <v>15120024</v>
       </c>
       <c r="C152" t="s">
         <v>3</v>
@@ -4361,16 +4407,16 @@
       <c r="G152">
         <v>5</v>
       </c>
-      <c r="H152" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H152" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
-      <c r="B153" s="1">
-        <v>1511032</v>
+      <c r="B153" s="3">
+        <v>15120103</v>
       </c>
       <c r="C153" t="s">
         <v>3</v>
@@ -4387,16 +4433,16 @@
       <c r="G153">
         <v>6</v>
       </c>
-      <c r="H153" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H153" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
-      <c r="B154" s="1">
-        <v>1511033</v>
+      <c r="B154" s="2">
+        <v>15110304</v>
       </c>
       <c r="C154" t="s">
         <v>3</v>
@@ -4413,16 +4459,16 @@
       <c r="G154">
         <v>5</v>
       </c>
-      <c r="H154" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H154" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
-      <c r="B155" s="1">
-        <v>1511034</v>
+      <c r="B155" s="3">
+        <v>14110114</v>
       </c>
       <c r="C155" t="s">
         <v>3</v>
@@ -4439,16 +4485,16 @@
       <c r="G155">
         <v>6</v>
       </c>
-      <c r="H155" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H155" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
-      <c r="B156" s="1">
-        <v>1511035</v>
+      <c r="B156" s="3">
+        <v>13110256</v>
       </c>
       <c r="C156" t="s">
         <v>0</v>
@@ -4465,16 +4511,16 @@
       <c r="G156">
         <v>5</v>
       </c>
-      <c r="H156" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H156" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
-      <c r="B157" s="1">
-        <v>1511036</v>
+      <c r="B157" s="3">
+        <v>14110133</v>
       </c>
       <c r="C157" t="s">
         <v>3</v>
@@ -4491,16 +4537,16 @@
       <c r="G157">
         <v>6</v>
       </c>
-      <c r="H157" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H157" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
-      <c r="B158" s="1">
-        <v>1511037</v>
+      <c r="B158" s="3">
+        <v>13110019</v>
       </c>
       <c r="C158" t="s">
         <v>3</v>
@@ -4517,16 +4563,16 @@
       <c r="G158">
         <v>5</v>
       </c>
-      <c r="H158" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H158" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
-      <c r="B159" s="1">
-        <v>1511038</v>
+      <c r="B159" s="3">
+        <v>15120014</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
@@ -4543,16 +4589,16 @@
       <c r="G159">
         <v>6</v>
       </c>
-      <c r="H159" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H159" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
-      <c r="B160" s="1">
-        <v>1511039</v>
+      <c r="B160" s="3">
+        <v>15110055</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
@@ -4569,16 +4615,16 @@
       <c r="G160">
         <v>5</v>
       </c>
-      <c r="H160" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H160" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
-      <c r="B161" s="1">
-        <v>1511040</v>
+      <c r="B161" s="3">
+        <v>15110077</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -4595,16 +4641,16 @@
       <c r="G161">
         <v>6</v>
       </c>
-      <c r="H161" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H161" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
-      <c r="B162" s="1">
-        <v>1511041</v>
+      <c r="B162" s="2">
+        <v>15120113</v>
       </c>
       <c r="C162" t="s">
         <v>2</v>
@@ -4621,16 +4667,16 @@
       <c r="G162">
         <v>5</v>
       </c>
-      <c r="H162" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H162" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
-      <c r="B163" s="1">
-        <v>1511042</v>
+      <c r="B163" s="3">
+        <v>15120125</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
@@ -4647,16 +4693,16 @@
       <c r="G163">
         <v>6</v>
       </c>
-      <c r="H163" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H163" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B164" s="1">
-        <v>1511043</v>
+      <c r="B164" s="3">
+        <v>15120059</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
@@ -4673,16 +4719,16 @@
       <c r="G164">
         <v>5</v>
       </c>
-      <c r="H164" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H164" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
-      <c r="B165" s="1">
-        <v>1511044</v>
+      <c r="B165" s="3">
+        <v>15120134</v>
       </c>
       <c r="C165" t="s">
         <v>2</v>
@@ -4699,16 +4745,16 @@
       <c r="G165">
         <v>6</v>
       </c>
-      <c r="H165" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H165" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
-      <c r="B166" s="1">
-        <v>1511045</v>
+      <c r="B166" s="3">
+        <v>15110195</v>
       </c>
       <c r="C166" t="s">
         <v>3</v>
@@ -4725,16 +4771,16 @@
       <c r="G166">
         <v>5</v>
       </c>
-      <c r="H166" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H166" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
-      <c r="B167" s="1">
-        <v>1511046</v>
+      <c r="B167" s="3">
+        <v>15110061</v>
       </c>
       <c r="C167" t="s">
         <v>3</v>
@@ -4751,16 +4797,16 @@
       <c r="G167">
         <v>6</v>
       </c>
-      <c r="H167" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H167" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="B168" s="1">
-        <v>1511047</v>
+      <c r="B168" s="3">
+        <v>15110161</v>
       </c>
       <c r="C168" t="s">
         <v>3</v>
@@ -4777,16 +4823,16 @@
       <c r="G168">
         <v>5</v>
       </c>
-      <c r="H168" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H168" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
-      <c r="B169" s="1">
-        <v>1511048</v>
+      <c r="B169" s="3">
+        <v>15120057</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
@@ -4803,16 +4849,16 @@
       <c r="G169">
         <v>6</v>
       </c>
-      <c r="H169" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H169" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
-      <c r="B170" s="1">
-        <v>1511049</v>
+      <c r="B170" s="3">
+        <v>15120096</v>
       </c>
       <c r="C170" t="s">
         <v>1</v>
@@ -4829,16 +4875,16 @@
       <c r="G170">
         <v>5</v>
       </c>
-      <c r="H170" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H170" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
-      <c r="B171" s="1">
-        <v>1511050</v>
+      <c r="B171" s="3">
+        <v>15120159</v>
       </c>
       <c r="C171" t="s">
         <v>1</v>
@@ -4855,16 +4901,16 @@
       <c r="G171">
         <v>6</v>
       </c>
-      <c r="H171" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H171" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
-      <c r="B172" s="1">
-        <v>1511051</v>
+      <c r="B172" s="2">
+        <v>15120033</v>
       </c>
       <c r="C172" t="s">
         <v>1</v>
@@ -4881,16 +4927,16 @@
       <c r="G172">
         <v>5</v>
       </c>
-      <c r="H172" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H172" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
-      <c r="B173" s="1">
-        <v>1511052</v>
+      <c r="B173" s="3">
+        <v>15110147</v>
       </c>
       <c r="C173" t="s">
         <v>1</v>
@@ -4907,16 +4953,16 @@
       <c r="G173">
         <v>6</v>
       </c>
-      <c r="H173" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H173" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
-      <c r="B174" s="1">
-        <v>1511053</v>
+      <c r="B174" s="3">
+        <v>15110120</v>
       </c>
       <c r="C174" t="s">
         <v>1</v>
@@ -4933,16 +4979,16 @@
       <c r="G174">
         <v>5</v>
       </c>
-      <c r="H174" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H174" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
-      <c r="B175" s="1">
-        <v>1511054</v>
+      <c r="B175" s="3">
+        <v>15110267</v>
       </c>
       <c r="C175" t="s">
         <v>1</v>
@@ -4959,16 +5005,16 @@
       <c r="G175">
         <v>6</v>
       </c>
-      <c r="H175" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H175" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
-      <c r="B176" s="1">
-        <v>1511055</v>
+      <c r="B176" s="3">
+        <v>14110079</v>
       </c>
       <c r="C176" t="s">
         <v>3</v>
@@ -4985,16 +5031,16 @@
       <c r="G176">
         <v>5</v>
       </c>
-      <c r="H176" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H176" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
-      <c r="B177" s="1">
-        <v>1511056</v>
+      <c r="B177" s="3">
+        <v>15110040</v>
       </c>
       <c r="C177" t="s">
         <v>3</v>
@@ -5011,16 +5057,16 @@
       <c r="G177">
         <v>6</v>
       </c>
-      <c r="H177" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H177" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
-      <c r="B178" s="1">
-        <v>1511057</v>
+      <c r="B178" s="3">
+        <v>15110198</v>
       </c>
       <c r="C178" t="s">
         <v>2</v>
@@ -5037,16 +5083,16 @@
       <c r="G178">
         <v>5</v>
       </c>
-      <c r="H178" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H178" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
-      <c r="B179" s="1">
-        <v>1511058</v>
+      <c r="B179" s="3">
+        <v>15110300</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
@@ -5063,16 +5109,16 @@
       <c r="G179">
         <v>6</v>
       </c>
-      <c r="H179" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H179" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="B180" s="1">
-        <v>1511059</v>
+      <c r="B180" s="3">
+        <v>15110127</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
@@ -5089,16 +5135,16 @@
       <c r="G180">
         <v>5</v>
       </c>
-      <c r="H180" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H180" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
-      <c r="B181" s="1">
-        <v>1511060</v>
+      <c r="B181" s="3">
+        <v>14110075</v>
       </c>
       <c r="C181" t="s">
         <v>0</v>
@@ -5115,16 +5161,16 @@
       <c r="G181">
         <v>6</v>
       </c>
-      <c r="H181" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H181" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
-      <c r="B182" s="1">
-        <v>1511061</v>
+      <c r="B182" s="2">
+        <v>14120101</v>
       </c>
       <c r="C182" t="s">
         <v>0</v>
@@ -5141,16 +5187,16 @@
       <c r="G182">
         <v>5</v>
       </c>
-      <c r="H182" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H182" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
-      <c r="B183" s="1">
-        <v>1511062</v>
+      <c r="B183" s="3">
+        <v>15120165</v>
       </c>
       <c r="C183" t="s">
         <v>3</v>
@@ -5167,16 +5213,16 @@
       <c r="G183">
         <v>6</v>
       </c>
-      <c r="H183" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H183" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
-      <c r="B184" s="1">
-        <v>1511063</v>
+      <c r="B184" s="3">
+        <v>14120012</v>
       </c>
       <c r="C184" t="s">
         <v>3</v>
@@ -5193,16 +5239,16 @@
       <c r="G184">
         <v>5</v>
       </c>
-      <c r="H184" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H184" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
-      <c r="B185" s="1">
-        <v>1511064</v>
+      <c r="B185" s="3">
+        <v>14110043</v>
       </c>
       <c r="C185" t="s">
         <v>3</v>
@@ -5219,16 +5265,16 @@
       <c r="G185">
         <v>6</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H185" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
-      <c r="B186" s="1">
-        <v>1511065</v>
+      <c r="B186" s="3">
+        <v>14110164</v>
       </c>
       <c r="C186" t="s">
         <v>3</v>
@@ -5245,16 +5291,16 @@
       <c r="G186">
         <v>5</v>
       </c>
-      <c r="H186" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H186" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
-      <c r="B187" s="1">
-        <v>1511066</v>
+      <c r="B187" s="3">
+        <v>15110125</v>
       </c>
       <c r="C187" t="s">
         <v>3</v>
@@ -5271,16 +5317,16 @@
       <c r="G187">
         <v>6</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H187" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
-      <c r="B188" s="1">
-        <v>1511067</v>
+      <c r="B188" s="3">
+        <v>14110130</v>
       </c>
       <c r="C188" t="s">
         <v>3</v>
@@ -5297,16 +5343,16 @@
       <c r="G188">
         <v>5</v>
       </c>
-      <c r="H188" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H188" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
-      <c r="B189" s="1">
-        <v>1511068</v>
+      <c r="B189" s="3">
+        <v>15120126</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
@@ -5323,16 +5369,16 @@
       <c r="G189">
         <v>6</v>
       </c>
-      <c r="H189" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H189" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
-      <c r="B190" s="1">
-        <v>1511069</v>
+      <c r="B190" s="3">
+        <v>15110237</v>
       </c>
       <c r="C190" t="s">
         <v>2</v>
@@ -5349,16 +5395,16 @@
       <c r="G190">
         <v>5</v>
       </c>
-      <c r="H190" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H190" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
-      <c r="B191" s="1">
-        <v>1511070</v>
+      <c r="B191" s="3">
+        <v>15110220</v>
       </c>
       <c r="C191" t="s">
         <v>2</v>
@@ -5375,16 +5421,16 @@
       <c r="G191">
         <v>6</v>
       </c>
-      <c r="H191" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H191" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
-      <c r="B192" s="1">
-        <v>1511071</v>
+      <c r="B192" s="2">
+        <v>14120249</v>
       </c>
       <c r="C192" t="s">
         <v>3</v>
@@ -5401,16 +5447,16 @@
       <c r="G192">
         <v>5</v>
       </c>
-      <c r="H192" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H192" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
-      <c r="B193" s="1">
-        <v>1511072</v>
+      <c r="B193" s="3">
+        <v>15120076</v>
       </c>
       <c r="C193" t="s">
         <v>2</v>
@@ -5427,16 +5473,16 @@
       <c r="G193">
         <v>6</v>
       </c>
-      <c r="H193" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H193" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
-      <c r="B194" s="1">
-        <v>1511073</v>
+      <c r="B194" s="3">
+        <v>14120190</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
@@ -5453,16 +5499,16 @@
       <c r="G194">
         <v>5</v>
       </c>
-      <c r="H194" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H194" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
-      <c r="B195" s="1">
-        <v>1511074</v>
+      <c r="B195" s="3">
+        <v>15110273</v>
       </c>
       <c r="C195" t="s">
         <v>2</v>
@@ -5479,16 +5525,16 @@
       <c r="G195">
         <v>6</v>
       </c>
-      <c r="H195" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H195" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
-      <c r="B196" s="1">
-        <v>1511075</v>
+      <c r="B196" s="3">
+        <v>15110063</v>
       </c>
       <c r="C196" t="s">
         <v>2</v>
@@ -5505,16 +5551,16 @@
       <c r="G196">
         <v>5</v>
       </c>
-      <c r="H196" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H196" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
-      <c r="B197" s="1">
-        <v>1511076</v>
+      <c r="B197" s="3">
+        <v>14110371</v>
       </c>
       <c r="C197" t="s">
         <v>3</v>
@@ -5531,16 +5577,16 @@
       <c r="G197">
         <v>6</v>
       </c>
-      <c r="H197" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H197" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
-      <c r="B198" s="1">
-        <v>1511077</v>
+      <c r="B198" s="3">
+        <v>15110142</v>
       </c>
       <c r="C198" t="s">
         <v>3</v>
@@ -5557,16 +5603,16 @@
       <c r="G198">
         <v>5</v>
       </c>
-      <c r="H198" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H198" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
-      <c r="B199" s="1">
-        <v>1511078</v>
+      <c r="B199" s="3">
+        <v>15120114</v>
       </c>
       <c r="C199" t="s">
         <v>3</v>
@@ -5583,16 +5629,16 @@
       <c r="G199">
         <v>6</v>
       </c>
-      <c r="H199" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H199" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
-      <c r="B200" s="1">
-        <v>1511079</v>
+      <c r="B200" s="3">
+        <v>15120017</v>
       </c>
       <c r="C200" t="s">
         <v>1</v>
@@ -5609,16 +5655,16 @@
       <c r="G200">
         <v>5</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H200" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>
-      <c r="B201" s="1">
-        <v>1511080</v>
+      <c r="B201" s="3">
+        <v>15120128</v>
       </c>
       <c r="C201" t="s">
         <v>1</v>
@@ -5635,16 +5681,16 @@
       <c r="G201">
         <v>6</v>
       </c>
-      <c r="H201" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H201" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>201</v>
       </c>
-      <c r="B202" s="1">
-        <v>1511081</v>
+      <c r="B202" s="3">
+        <v>15120173</v>
       </c>
       <c r="C202" t="s">
         <v>1</v>
@@ -5661,16 +5707,16 @@
       <c r="G202">
         <v>5</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H202" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>202</v>
       </c>
-      <c r="B203" s="1">
-        <v>1511082</v>
+      <c r="B203" s="3">
+        <v>15120108</v>
       </c>
       <c r="C203" t="s">
         <v>3</v>
@@ -5687,16 +5733,16 @@
       <c r="G203">
         <v>6</v>
       </c>
-      <c r="H203" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H203" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>203</v>
       </c>
-      <c r="B204" s="1">
-        <v>1511083</v>
+      <c r="B204" s="3">
+        <v>15120092</v>
       </c>
       <c r="C204" t="s">
         <v>3</v>
@@ -5713,16 +5759,16 @@
       <c r="G204">
         <v>5</v>
       </c>
-      <c r="H204" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H204" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>204</v>
       </c>
-      <c r="B205" s="1">
-        <v>1511084</v>
+      <c r="B205" s="3">
+        <v>15110270</v>
       </c>
       <c r="C205" t="s">
         <v>3</v>
@@ -5739,16 +5785,16 @@
       <c r="G205">
         <v>6</v>
       </c>
-      <c r="H205" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H205" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>205</v>
       </c>
-      <c r="B206" s="1">
-        <v>1511085</v>
+      <c r="B206" s="3">
+        <v>15110204</v>
       </c>
       <c r="C206" t="s">
         <v>1</v>
@@ -5765,16 +5811,16 @@
       <c r="G206">
         <v>5</v>
       </c>
-      <c r="H206" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H206" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>206</v>
       </c>
-      <c r="B207" s="1">
-        <v>1511086</v>
+      <c r="B207" s="3">
+        <v>14110336</v>
       </c>
       <c r="C207" t="s">
         <v>1</v>
@@ -5791,16 +5837,16 @@
       <c r="G207">
         <v>6</v>
       </c>
-      <c r="H207" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H207" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
-      <c r="B208" s="1">
-        <v>1511087</v>
+      <c r="B208" s="3">
+        <v>15110255</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
@@ -5817,16 +5863,16 @@
       <c r="G208">
         <v>5</v>
       </c>
-      <c r="H208" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H208" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>208</v>
       </c>
-      <c r="B209" s="1">
-        <v>1511088</v>
+      <c r="B209" s="2">
+        <v>15120073</v>
       </c>
       <c r="C209" t="s">
         <v>1</v>
@@ -5843,16 +5889,16 @@
       <c r="G209">
         <v>6</v>
       </c>
-      <c r="H209" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H209" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
-      <c r="B210" s="1">
-        <v>1511089</v>
+      <c r="B210" s="3">
+        <v>15120133</v>
       </c>
       <c r="C210" t="s">
         <v>1</v>
@@ -5869,16 +5915,16 @@
       <c r="G210">
         <v>5</v>
       </c>
-      <c r="H210" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H210" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>210</v>
       </c>
-      <c r="B211" s="1">
-        <v>1511090</v>
+      <c r="B211" s="3">
+        <v>15110276</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
@@ -5895,16 +5941,16 @@
       <c r="G211">
         <v>6</v>
       </c>
-      <c r="H211" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H211" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>211</v>
       </c>
-      <c r="B212" s="1">
-        <v>1511091</v>
+      <c r="B212" s="3">
+        <v>15120087</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
@@ -5921,16 +5967,16 @@
       <c r="G212">
         <v>5</v>
       </c>
-      <c r="H212" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H212" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>212</v>
       </c>
-      <c r="B213" s="1">
-        <v>1511092</v>
+      <c r="B213" s="3">
+        <v>15120050</v>
       </c>
       <c r="C213" t="s">
         <v>3</v>
@@ -5947,16 +5993,16 @@
       <c r="G213">
         <v>6</v>
       </c>
-      <c r="H213" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H213" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>213</v>
       </c>
-      <c r="B214" s="1">
-        <v>1511093</v>
+      <c r="B214" s="3">
+        <v>14110265</v>
       </c>
       <c r="C214" t="s">
         <v>3</v>
@@ -5973,16 +6019,16 @@
       <c r="G214">
         <v>5</v>
       </c>
-      <c r="H214" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H214" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
-      <c r="B215" s="1">
-        <v>1511094</v>
+      <c r="B215" s="3">
+        <v>15110072</v>
       </c>
       <c r="C215" t="s">
         <v>3</v>
@@ -5999,16 +6045,16 @@
       <c r="G215">
         <v>6</v>
       </c>
-      <c r="H215" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H215" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
-      <c r="B216" s="1">
-        <v>1511095</v>
+      <c r="B216" s="3">
+        <v>15110312</v>
       </c>
       <c r="C216" t="s">
         <v>3</v>
@@ -6025,16 +6071,16 @@
       <c r="G216">
         <v>5</v>
       </c>
-      <c r="H216" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H216" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>216</v>
       </c>
-      <c r="B217" s="1">
-        <v>1511096</v>
+      <c r="B217" s="3">
+        <v>14110112</v>
       </c>
       <c r="C217" t="s">
         <v>3</v>
@@ -6051,16 +6097,16 @@
       <c r="G217">
         <v>6</v>
       </c>
-      <c r="H217" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H217" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>217</v>
       </c>
-      <c r="B218" s="1">
-        <v>1511097</v>
+      <c r="B218" s="3">
+        <v>15110004</v>
       </c>
       <c r="C218" t="s">
         <v>3</v>
@@ -6077,16 +6123,16 @@
       <c r="G218">
         <v>5</v>
       </c>
-      <c r="H218" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H218" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
-      <c r="B219" s="1">
-        <v>1511098</v>
+      <c r="B219" s="3">
+        <v>15120007</v>
       </c>
       <c r="C219" t="s">
         <v>3</v>
@@ -6103,16 +6149,16 @@
       <c r="G219">
         <v>6</v>
       </c>
-      <c r="H219" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H219" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
-      <c r="B220" s="1">
-        <v>1511099</v>
+      <c r="B220" s="3">
+        <v>15110018</v>
       </c>
       <c r="C220" t="s">
         <v>3</v>
@@ -6129,16 +6175,16 @@
       <c r="G220">
         <v>5</v>
       </c>
-      <c r="H220" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H220" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
-      <c r="B221" s="1">
-        <v>1511100</v>
+      <c r="B221" s="3">
+        <v>15110257</v>
       </c>
       <c r="C221" t="s">
         <v>3</v>
@@ -6155,16 +6201,16 @@
       <c r="G221">
         <v>6</v>
       </c>
-      <c r="H221" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H221" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
-      <c r="B222" s="1">
-        <v>1511101</v>
+      <c r="B222" s="3">
+        <v>15120124</v>
       </c>
       <c r="C222" t="s">
         <v>3</v>
@@ -6181,16 +6227,16 @@
       <c r="G222">
         <v>5</v>
       </c>
-      <c r="H222" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H222" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
-      <c r="B223" s="1">
-        <v>1511102</v>
+      <c r="B223" s="3">
+        <v>15120088</v>
       </c>
       <c r="C223" t="s">
         <v>3</v>
@@ -6207,16 +6253,16 @@
       <c r="G223">
         <v>6</v>
       </c>
-      <c r="H223" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H223" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
-      <c r="B224" s="1">
-        <v>1511103</v>
+      <c r="B224" s="3">
+        <v>13120275</v>
       </c>
       <c r="C224" t="s">
         <v>3</v>
@@ -6233,16 +6279,16 @@
       <c r="G224">
         <v>5</v>
       </c>
-      <c r="H224" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H224" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
-      <c r="B225" s="1">
-        <v>1511104</v>
+      <c r="B225" s="3">
+        <v>14110280</v>
       </c>
       <c r="C225" t="s">
         <v>1</v>
@@ -6259,16 +6305,16 @@
       <c r="G225">
         <v>6</v>
       </c>
-      <c r="H225" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H225" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
-      <c r="B226" s="1">
-        <v>1511105</v>
+      <c r="B226" s="3">
+        <v>14110328</v>
       </c>
       <c r="C226" t="s">
         <v>1</v>
@@ -6285,16 +6331,16 @@
       <c r="G226">
         <v>5</v>
       </c>
-      <c r="H226" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H226" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
-      <c r="B227" s="1">
-        <v>1511106</v>
+      <c r="B227" s="3">
+        <v>14110085</v>
       </c>
       <c r="C227" t="s">
         <v>3</v>
@@ -6311,16 +6357,16 @@
       <c r="G227">
         <v>6</v>
       </c>
-      <c r="H227" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H227" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
-      <c r="B228" s="1">
-        <v>1511107</v>
+      <c r="B228" s="3">
+        <v>15110279</v>
       </c>
       <c r="C228" t="s">
         <v>1</v>
@@ -6337,16 +6383,16 @@
       <c r="G228">
         <v>5</v>
       </c>
-      <c r="H228" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H228" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
-      <c r="B229" s="1">
-        <v>1511108</v>
+      <c r="B229" s="3">
+        <v>15120065</v>
       </c>
       <c r="C229" t="s">
         <v>1</v>
@@ -6363,16 +6409,16 @@
       <c r="G229">
         <v>6</v>
       </c>
-      <c r="H229" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H229" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>229</v>
       </c>
-      <c r="B230" s="1">
-        <v>1511109</v>
+      <c r="B230" s="3">
+        <v>15110268</v>
       </c>
       <c r="C230" t="s">
         <v>3</v>
@@ -6389,16 +6435,16 @@
       <c r="G230">
         <v>5</v>
       </c>
-      <c r="H230" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H230" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
-      <c r="B231" s="1">
-        <v>1511110</v>
+      <c r="B231" s="3">
+        <v>15110319</v>
       </c>
       <c r="C231" t="s">
         <v>3</v>
@@ -6415,16 +6461,16 @@
       <c r="G231">
         <v>6</v>
       </c>
-      <c r="H231" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H231" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
-      <c r="B232" s="1">
-        <v>1511111</v>
+      <c r="B232" s="3">
+        <v>15120119</v>
       </c>
       <c r="C232" t="s">
         <v>3</v>
@@ -6441,16 +6487,16 @@
       <c r="G232">
         <v>5</v>
       </c>
-      <c r="H232" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H232" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
-      <c r="B233" s="1">
-        <v>1511112</v>
+      <c r="B233" s="3">
+        <v>15120075</v>
       </c>
       <c r="C233" t="s">
         <v>3</v>
@@ -6467,16 +6513,16 @@
       <c r="G233">
         <v>6</v>
       </c>
-      <c r="H233" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H233" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
-      <c r="B234" s="1">
-        <v>1511113</v>
+      <c r="B234" s="3">
+        <v>15120095</v>
       </c>
       <c r="C234" t="s">
         <v>1</v>
@@ -6493,16 +6539,16 @@
       <c r="G234">
         <v>5</v>
       </c>
-      <c r="H234" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H234" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
-      <c r="B235" s="1">
-        <v>1511114</v>
+      <c r="B235" s="3">
+        <v>14110135</v>
       </c>
       <c r="C235" t="s">
         <v>3</v>
@@ -6519,16 +6565,16 @@
       <c r="G235">
         <v>6</v>
       </c>
-      <c r="H235" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H235" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
-      <c r="B236" s="1">
-        <v>1511115</v>
+      <c r="B236" s="2">
+        <v>14110128</v>
       </c>
       <c r="C236" t="s">
         <v>1</v>
@@ -6545,16 +6591,16 @@
       <c r="G236">
         <v>5</v>
       </c>
-      <c r="H236" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H236" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>236</v>
       </c>
-      <c r="B237" s="1">
-        <v>1511116</v>
+      <c r="B237" s="3">
+        <v>15110006</v>
       </c>
       <c r="C237" t="s">
         <v>3</v>
@@ -6571,16 +6617,16 @@
       <c r="G237">
         <v>6</v>
       </c>
-      <c r="H237" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H237" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="1">
-        <v>1511117</v>
+      <c r="B238" s="3">
+        <v>15120072</v>
       </c>
       <c r="C238" t="s">
         <v>3</v>
@@ -6597,16 +6643,16 @@
       <c r="G238">
         <v>5</v>
       </c>
-      <c r="H238" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H238" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>238</v>
       </c>
-      <c r="B239" s="1">
-        <v>1511118</v>
+      <c r="B239" s="3">
+        <v>15110113</v>
       </c>
       <c r="C239" t="s">
         <v>1</v>
@@ -6623,16 +6669,16 @@
       <c r="G239">
         <v>6</v>
       </c>
-      <c r="H239" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H239" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>239</v>
       </c>
-      <c r="B240" s="1">
-        <v>1511119</v>
+      <c r="B240" s="3">
+        <v>15110126</v>
       </c>
       <c r="C240" t="s">
         <v>3</v>
@@ -6649,16 +6695,16 @@
       <c r="G240">
         <v>5</v>
       </c>
-      <c r="H240" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H240" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
-      <c r="B241" s="1">
-        <v>1511120</v>
+      <c r="B241" s="3">
+        <v>15110035</v>
       </c>
       <c r="C241" t="s">
         <v>3</v>
@@ -6675,9 +6721,535 @@
       <c r="G241">
         <v>6</v>
       </c>
-      <c r="H241" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="H241" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="3">
+        <v>15120002</v>
+      </c>
+      <c r="C242" t="s">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>9</v>
+      </c>
+      <c r="E242">
+        <v>7</v>
+      </c>
+      <c r="F242">
+        <v>6</v>
+      </c>
+      <c r="G242">
+        <v>5</v>
+      </c>
+      <c r="H242" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" s="3">
+        <v>15120091</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>6</v>
+      </c>
+      <c r="E243">
+        <v>5</v>
+      </c>
+      <c r="F243">
+        <v>7</v>
+      </c>
+      <c r="G243">
+        <v>6</v>
+      </c>
+      <c r="H243" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" s="3">
+        <v>15120105</v>
+      </c>
+      <c r="C244" t="s">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>9</v>
+      </c>
+      <c r="E244">
+        <v>7</v>
+      </c>
+      <c r="F244">
+        <v>6</v>
+      </c>
+      <c r="G244">
+        <v>5</v>
+      </c>
+      <c r="H244" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" s="3">
+        <v>14120065</v>
+      </c>
+      <c r="C245" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245">
+        <v>6</v>
+      </c>
+      <c r="E245">
+        <v>5</v>
+      </c>
+      <c r="F245">
+        <v>7</v>
+      </c>
+      <c r="G245">
+        <v>6</v>
+      </c>
+      <c r="H245" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="3">
+        <v>14110126</v>
+      </c>
+      <c r="C246" t="s">
+        <v>3</v>
+      </c>
+      <c r="D246">
+        <v>9</v>
+      </c>
+      <c r="E246">
+        <v>7</v>
+      </c>
+      <c r="F246">
+        <v>6</v>
+      </c>
+      <c r="G246">
+        <v>5</v>
+      </c>
+      <c r="H246" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" s="3">
+        <v>14110069</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>6</v>
+      </c>
+      <c r="E247">
+        <v>5</v>
+      </c>
+      <c r="F247">
+        <v>7</v>
+      </c>
+      <c r="G247">
+        <v>6</v>
+      </c>
+      <c r="H247" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="3">
+        <v>15120140</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>9</v>
+      </c>
+      <c r="E248">
+        <v>7</v>
+      </c>
+      <c r="F248">
+        <v>6</v>
+      </c>
+      <c r="G248">
+        <v>5</v>
+      </c>
+      <c r="H248" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="3">
+        <v>15110042</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>6</v>
+      </c>
+      <c r="E249">
+        <v>5</v>
+      </c>
+      <c r="F249">
+        <v>7</v>
+      </c>
+      <c r="G249">
+        <v>6</v>
+      </c>
+      <c r="H249" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="3">
+        <v>15110186</v>
+      </c>
+      <c r="C250" t="s">
+        <v>3</v>
+      </c>
+      <c r="D250">
+        <v>9</v>
+      </c>
+      <c r="E250">
+        <v>7</v>
+      </c>
+      <c r="F250">
+        <v>6</v>
+      </c>
+      <c r="G250">
+        <v>5</v>
+      </c>
+      <c r="H250" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="3">
+        <v>14110275</v>
+      </c>
+      <c r="C251" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251">
+        <v>6</v>
+      </c>
+      <c r="E251">
+        <v>5</v>
+      </c>
+      <c r="F251">
+        <v>7</v>
+      </c>
+      <c r="G251">
+        <v>6</v>
+      </c>
+      <c r="H251" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="3">
+        <v>14120076</v>
+      </c>
+      <c r="C252" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252">
+        <v>9</v>
+      </c>
+      <c r="E252">
+        <v>7</v>
+      </c>
+      <c r="F252">
+        <v>6</v>
+      </c>
+      <c r="G252">
+        <v>5</v>
+      </c>
+      <c r="H252" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" s="3">
+        <v>15120061</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>6</v>
+      </c>
+      <c r="E253">
+        <v>5</v>
+      </c>
+      <c r="F253">
+        <v>7</v>
+      </c>
+      <c r="G253">
+        <v>6</v>
+      </c>
+      <c r="H253" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" s="3">
+        <v>15120023</v>
+      </c>
+      <c r="C254" t="s">
+        <v>3</v>
+      </c>
+      <c r="D254">
+        <v>9</v>
+      </c>
+      <c r="E254">
+        <v>7</v>
+      </c>
+      <c r="F254">
+        <v>6</v>
+      </c>
+      <c r="G254">
+        <v>5</v>
+      </c>
+      <c r="H254" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" s="3">
+        <v>15110075</v>
+      </c>
+      <c r="C255" t="s">
+        <v>3</v>
+      </c>
+      <c r="D255">
+        <v>6</v>
+      </c>
+      <c r="E255">
+        <v>5</v>
+      </c>
+      <c r="F255">
+        <v>7</v>
+      </c>
+      <c r="G255">
+        <v>6</v>
+      </c>
+      <c r="H255" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" s="3">
+        <v>14110345</v>
+      </c>
+      <c r="C256" t="s">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>9</v>
+      </c>
+      <c r="E256">
+        <v>7</v>
+      </c>
+      <c r="F256">
+        <v>6</v>
+      </c>
+      <c r="G256">
+        <v>5</v>
+      </c>
+      <c r="H256" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" s="3">
+        <v>14110011</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>9</v>
+      </c>
+      <c r="E257">
+        <v>7</v>
+      </c>
+      <c r="F257">
+        <v>6</v>
+      </c>
+      <c r="G257">
+        <v>5</v>
+      </c>
+      <c r="H257" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" s="3">
+        <v>15120085</v>
+      </c>
+      <c r="C258" t="s">
+        <v>3</v>
+      </c>
+      <c r="D258">
+        <v>6</v>
+      </c>
+      <c r="E258">
+        <v>5</v>
+      </c>
+      <c r="F258">
+        <v>7</v>
+      </c>
+      <c r="G258">
+        <v>6</v>
+      </c>
+      <c r="H258" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" s="3">
+        <v>14120030</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>9</v>
+      </c>
+      <c r="E259">
+        <v>7</v>
+      </c>
+      <c r="F259">
+        <v>6</v>
+      </c>
+      <c r="G259">
+        <v>5</v>
+      </c>
+      <c r="H259" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="3">
+        <v>15110280</v>
+      </c>
+      <c r="C260" t="s">
+        <v>3</v>
+      </c>
+      <c r="D260">
+        <v>6</v>
+      </c>
+      <c r="E260">
+        <v>5</v>
+      </c>
+      <c r="F260">
+        <v>7</v>
+      </c>
+      <c r="G260">
+        <v>6</v>
+      </c>
+      <c r="H260" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" s="4">
+        <v>15110158</v>
+      </c>
+      <c r="C261" t="s">
+        <v>3</v>
+      </c>
+      <c r="D261">
+        <v>9</v>
+      </c>
+      <c r="E261">
+        <v>7</v>
+      </c>
+      <c r="F261">
+        <v>6</v>
+      </c>
+      <c r="G261">
+        <v>5</v>
+      </c>
+      <c r="H261" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H262" s="1"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H263" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
